--- a/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_train.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V97"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD000&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BCF20&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC580&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD700&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BAE30&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8890&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9EE0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9B60&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9BD0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79ADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9E00&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9A10&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79ACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9770&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9620&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E94D0&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL205942</t>
+          <t>CHEMBL378661</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
+          <t>CCNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
+          <t>CCNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>301.35</v>
+        <v>447.5</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1545,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>55.63</v>
+        <v>99.53</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9460&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL208734</t>
+          <t>CHEMBL205942</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4CO)c3n2)cc(OC)c1OC</t>
+          <t>Cc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4CO)c3n2)cc(OC)c1OC</t>
+          <t>Cc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,16 +1595,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>406.44</v>
+        <v>301.35</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>90.66</v>
+        <v>55.63</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9380&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL207147</t>
+          <t>CHEMBL208734</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4CO)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4CO)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,16 +1663,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>411.85</v>
+        <v>406.44</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>83.31999999999999</v>
+        <v>90.66</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9000&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL207820</t>
+          <t>CHEMBL207147</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4F)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4F)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>395.39</v>
+        <v>411.85</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8F20&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL1084546</t>
+          <t>CHEMBL379655</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CN(c1ncccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccc(SC)cc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CN(c1ncccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccc(SC)cc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G1 active</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>G1</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>507.5</v>
+        <v>422.51</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J20" t="n">
         <v>7</v>
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>129.21</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8CF0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL471520</t>
+          <t>CHEMBL1084546</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4)n3)ccc2N1</t>
+          <t>CN(c1ncccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4)n3)ccc2N1</t>
+          <t>CN(c1ncccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,16 +1867,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>399.38</v>
+        <v>507.5</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>78.94</v>
+        <v>129.21</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8C10&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL207131</t>
+          <t>CHEMBL471520</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)O)c4)c3n2)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)O)c4)c3n2)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>420.43</v>
+        <v>399.38</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>107.73</v>
+        <v>78.94</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9D90&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL470316</t>
+          <t>CHEMBL377708</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(Br)c(NCc4ccccn4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN5CCCC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(Br)c(NCc4ccccn4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN5CCCC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>411.26</v>
+        <v>516.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
         <v>5</v>
       </c>
-      <c r="K23" t="n">
-        <v>4</v>
-      </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M23" t="n">
-        <v>91.83</v>
+        <v>102.77</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9540&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E93F0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E90E0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL439154</t>
+          <t>CHEMBL209044</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,13 +2207,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>473.53</v>
+        <v>472.51</v>
       </c>
       <c r="H26" t="n">
         <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
         <v>9</v>
@@ -2222,10 +2222,10 @@
         <v>5</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>99.53</v>
+        <v>124.89</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8AC0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL209044</t>
+          <t>CHEMBL207015</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>472.51</v>
+        <v>401.43</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>124.89</v>
+        <v>94.22</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E97E0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL207015</t>
+          <t>CHEMBL207737</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(F)(F)F)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(F)(F)F)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,13 +2343,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>401.43</v>
+        <v>444.41</v>
       </c>
       <c r="H28" t="n">
         <v>1</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
         <v>6</v>
@@ -2361,7 +2361,7 @@
         <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>94.22</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9150&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL207737</t>
+          <t>CHEMBL380226</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(F)(F)F)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCC#N)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(F)(F)F)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCC#N)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,16 +2411,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>444.41</v>
+        <v>459.47</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -2429,7 +2429,7 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>70.43000000000001</v>
+        <v>136.21</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9E70&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL380312</t>
+          <t>CHEMBL205316</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCC#N)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1ccncc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCC#N)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1ccncc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,16 +2479,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>473.49</v>
+        <v>407.43</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>136.21</v>
+        <v>92.55</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9C40&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL205316</t>
+          <t>CHEMBL208468</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COc1ccncc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>COc1ccncc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>407.43</v>
+        <v>459.51</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
+        <v>7</v>
+      </c>
+      <c r="J31" t="n">
         <v>8</v>
       </c>
-      <c r="J31" t="n">
-        <v>7</v>
-      </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L31" t="n">
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>92.55</v>
+        <v>99.53</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9D20&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL208468</t>
+          <t>CHEMBL208384</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>459.51</v>
+        <v>477.53</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I32" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>99.53</v>
+        <v>138.44</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9A80&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL207259</t>
+          <t>CHEMBL208368</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CCNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccc(C)cc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CCNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccc(C)cc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,16 +2683,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>475.55</v>
+        <v>390.44</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>99.53</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E99A0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL208368</t>
+          <t>CHEMBL207935</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccc(C)cc4)c3n2)cc(OC)c1OC</t>
+          <t>Clc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccc(C)cc4)c3n2)cc(OC)c1OC</t>
+          <t>Clc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,16 +2751,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>390.44</v>
+        <v>321.77</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
@@ -2769,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>70.43000000000001</v>
+        <v>55.63</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9930&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL206927</t>
+          <t>CHEMBL206322</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COC(=O)CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)n1</t>
+          <t>COc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>COC(=O)CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)n1</t>
+          <t>COc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,16 +2819,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>492.49</v>
+        <v>317.35</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
@@ -2837,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>138.72</v>
+        <v>64.86</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9700&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL207232</t>
+          <t>CHEMBL382637</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>COC(=O)CNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>CCc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>COC(=O)CNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>CCc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,16 +2887,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>505.53</v>
+        <v>315.38</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K36" t="n">
         <v>4</v>
@@ -2905,7 +2905,7 @@
         <v>4</v>
       </c>
       <c r="M36" t="n">
-        <v>125.83</v>
+        <v>55.63</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9690&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL207935</t>
+          <t>CHEMBL382192</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Clc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COC(=O)CNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Clc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COC(=O)CNC(=O)CCc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2951,20 +2951,20 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>321.77</v>
+        <v>519.5599999999999</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J37" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K37" t="n">
         <v>4</v>
@@ -2973,7 +2973,7 @@
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>55.63</v>
+        <v>125.83</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79AA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9310&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL206322</t>
+          <t>CHEMBL207721</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>COc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>CCNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>COc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>CCNC(=O)Cc1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3019,20 +3019,20 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>317.35</v>
+        <v>461.52</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J38" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K38" t="n">
         <v>4</v>
@@ -3041,7 +3041,7 @@
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>64.86</v>
+        <v>99.53</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E92A0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,25 +3064,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL382637</t>
+          <t>C38925735</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CCc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>O=C(/N=c1\[nH]c(C23CC4CC(CC(C4)C2)C3)cs1)[C@@H]1C(=O)N2CCc3cccc(c32)[C@@H]1O</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CCc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>O=C(/N=c1\[nH]c(C23CC4CC(CC(C4)C2)C3)cs1)[C@@H]1C(=O)N2CCc3cccc(c32)[C@@H]1O</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>315.38</v>
+        <v>449.58</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K39" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>55.63</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC3C0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,52 +3132,52 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL207084</t>
+          <t>C43219055</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
+          <t>CC(C)(C)N1C(=O)[C@@H]2[C@@H](C1=O)[C@@](C(=O)[O-])(c1ccccc1)[NH2+][C@H]2c1cc2ccccc2o1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN)c4)c3n2)cc(OC)c1OC</t>
+          <t>CC(C)(C)N1C(=O)[C@H]2[C@H](c3cc4ccccc4o3)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>G2 active</t>
+          <t>G2 inactive</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>462.51</v>
+        <v>432.48</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
-        <v>125.55</v>
+        <v>107.26</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD1C0&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C38925735</t>
+          <t>C43528212</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>O=C(/N=c1\[nH]c(C23CC4CC(CC(C4)C2)C3)cs1)[C@@H]1C(=O)N2CCc3cccc(c32)[C@@H]1O</t>
+          <t>Cc1nc(C2CCCC2)cc([C@H]2C[NH+]3CC[C@@H]2C[C@@H]3C[NH2+]C2CCOCC2)n1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>O=C(/N=c1\[nH]c(C23CC4CC(CC(C4)C2)C3)cs1)[C@@H]1C(=O)N2CCc3cccc(c32)[C@@H]1O</t>
+          <t>Cc1nc(C2CCCC2)cc([C@H]2C[NH+]3CC[C@@H]2C[C@@H]3C[NH2+]C2CCOCC2)n1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,7 +3227,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>449.58</v>
+        <v>386.58</v>
       </c>
       <c r="H41" t="n">
         <v>2</v>
@@ -3236,16 +3236,16 @@
         <v>3</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>85.76000000000001</v>
+        <v>56.06</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC0B0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C43219055</t>
+          <t>C39774295</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CC(C)(C)N1C(=O)[C@@H]2[C@@H](C1=O)[C@@](C(=O)[O-])(c1ccccc1)[NH2+][C@H]2c1cc2ccccc2o1</t>
+          <t>C[C@@H]1C[NH+](C)[C@H](C)C/C1=N\OCCO/N=C1\C[C@@H](C)[NH+](C)C[C@@H]1C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CC(C)(C)N1C(=O)[C@H]2[C@H](c3cc4ccccc4o3)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
+          <t>C[C@H]1C[NH+](C)[C@H](C)C/C1=N\OCCO/N=C1\C[C@@H](C)[NH+](C)C[C@H]1C</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>432.48</v>
+        <v>340.51</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
+        <v>2</v>
+      </c>
+      <c r="J42" t="n">
         <v>5</v>
       </c>
-      <c r="J42" t="n">
-        <v>3</v>
-      </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>107.26</v>
+        <v>52.06</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC4A0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C43528212</t>
+          <t>C64609883</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cc1nc(C2CCCC2)cc([C@H]2C[NH+]3CC[C@@H]2C[C@@H]3C[NH2+]C2CCOCC2)n1</t>
+          <t>CC1=CC=CN2C1=N[C@H](C(=O)N1CCCCC1)[C@H]2CN(C)C[C@@H]1[NH+]=c2ccc(F)cc2=[NH+]1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cc1nc(C2CCCC2)cc([C@H]2C[NH+]3CC[C@@H]2C[C@@H]3C[NH2+]C2CCOCC2)n1</t>
+          <t>CC1=CC=CN2C1=N[C@H](C(=O)N1CCCCC1)[C@H]2CN(C)C[C@@H]1[NH+]=c2ccc(F)cc2=[NH+]1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,7 +3363,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>386.58</v>
+        <v>438.55</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
@@ -3375,13 +3375,13 @@
         <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>56.06</v>
+        <v>67.09</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD850&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C39774295</t>
+          <t>C08991697</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[NH+](C)[C@H](C)C/C1=N\OCCO/N=C1\C[C@@H](C)[NH+](C)C[C@@H]1C</t>
+          <t>CC[NH+](CC)CCn1cnc2oc(-c3ccco3)c(-c3ccco3)c2c1=[NH2+]</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C[C@H]1C[NH+](C)[C@H](C)C/C1=N\OCCO/N=C1\C[C@@H](C)[NH+](C)C[C@H]1C</t>
+          <t>CC[NH+](CC)CCn1cnc2oc(-c3ccco3)c(-c3ccco3)c2c1=[NH2+]</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>340.51</v>
+        <v>368.44</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>52.06</v>
+        <v>87.27</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC270&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C64609883</t>
+          <t>C65374646</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>CC1=CC=CN2C1=N[C@H](C(=O)N1CCCCC1)[C@H]2CN(C)C[C@@H]1[NH+]=c2ccc(F)cc2=[NH+]1</t>
+          <t>Cc1cc(N2N[C@@H](C(C)C)N[C@H]2[C@@H](Cc2c[nH]c[nH+]2)n2cccc2)cc[nH+]1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CC1=CC=CN2C1=N[C@H](C(=O)N1CCCCC1)[C@H]2CN(C)C[C@@H]1[NH+]=c2ccc(F)cc2=[NH+]1</t>
+          <t>Cc1cc(N2N[C@@H](C(C)C)N[C@H]2[C@@H](Cc2c[nH]c[nH+]2)n2cccc2)cc[nH+]1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>438.55</v>
+        <v>367.5</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
         <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>67.09</v>
+        <v>76.3</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBA00&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C08991697</t>
+          <t>C02759724</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC[NH+](CC)CCn1cnc2oc(-c3ccco3)c(-c3ccco3)c2c1=[NH2+]</t>
+          <t>C[C@@]1(C(=O)Nc2sc3c(c2C(N)=O)CCCCC3)CC1(Br)Br</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CC[NH+](CC)CCn1cnc2oc(-c3ccco3)c(-c3ccco3)c2c1=[NH2+]</t>
+          <t>C[C@@]1(C(=O)Nc2sc3c(c2C(N)=O)CCCCC3)CC1(Br)Br</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>368.44</v>
+        <v>450.2</v>
       </c>
       <c r="H46" t="n">
         <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>87.27</v>
+        <v>72.19</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB290&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>C65374646</t>
+          <t>C28717739</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cc1cc(N2N[C@@H](C(C)C)N[C@H]2[C@@H](Cc2c[nH]c[nH+]2)n2cccc2)cc[nH+]1</t>
+          <t>O=C(NNC(=O)c1cc(Br)c(Br)s1)c1cc(Br)c[nH]1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Cc1cc(N2N[C@@H](C(C)C)N[C@H]2[C@@H](Cc2c[nH]c[nH+]2)n2cccc2)cc[nH+]1</t>
+          <t>O=C(NNC(=O)c1cc(Br)c(Br)s1)c1cc(Br)c[nH]1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>367.5</v>
+        <v>471.96</v>
       </c>
       <c r="H47" t="n">
         <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>76.3</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB140&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C02759724</t>
+          <t>C20478434</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>C[C@@]1(C(=O)Nc2sc3c(c2C(N)=O)CCCCC3)CC1(Br)Br</t>
+          <t>O=C(CSc1n[nH]c(NN=C2CCCC2)n1)Nc1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C[C@@]1(C(=O)Nc2sc3c(c2C(N)=O)CCCCC3)CC1(Br)Br</t>
+          <t>O=C(CSc1n[nH]c(NN=C2CCCC2)n1)Nc1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>450.2</v>
+        <v>409.31</v>
       </c>
       <c r="H48" t="n">
+        <v>3</v>
+      </c>
+      <c r="I48" t="n">
+        <v>5</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
         <v>2</v>
       </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
       <c r="M48" t="n">
-        <v>72.19</v>
+        <v>95.06</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBF40&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>C28717739</t>
+          <t>C09219025</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>O=C(NNC(=O)c1cc(Br)c(Br)s1)c1cc(Br)c[nH]1</t>
+          <t>Cc1ccccc1-c1n[nH]c(SCc2cn3cc(Cl)ccc3n2)n1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>O=C(NNC(=O)c1cc(Br)c(Br)s1)c1cc(Br)c[nH]1</t>
+          <t>Cc1ccccc1-c1n[nH]c(SCc2cn3cc(Cl)ccc3n2)n1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,25 +3771,25 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>471.96</v>
+        <v>355.85</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>73.98999999999999</v>
+        <v>58.87</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB840&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C20478434</t>
+          <t>C35493901</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>O=C(CSc1n[nH]c(NN=C2CCCC2)n1)Nc1ccc(Br)cc1</t>
+          <t>C[C@]12CC[C@H]3[C@@H](CC[C@@]4(O)C[C@H](O)CC[C@]34/C=N/Nc3ccccc3)[C@@]1(O)CC[C@@H]2C1=CC(=O)OC1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>O=C(CSc1n[nH]c(NN=C2CCCC2)n1)Nc1ccc(Br)cc1</t>
+          <t>C[C@]12CC[C@H]3[C@@H](CC[C@@]4(O)C[C@H](O)CC[C@]34/C=N/Nc3ccccc3)[C@@]1(O)CC[C@@H]2C1=CC(=O)OC1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3839,25 +3839,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>409.31</v>
+        <v>494.63</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
+        <v>4</v>
+      </c>
+      <c r="K50" t="n">
         <v>6</v>
       </c>
-      <c r="K50" t="n">
-        <v>3</v>
-      </c>
       <c r="L50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>95.06</v>
+        <v>111.38</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB990&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C09219025</t>
+          <t>C39462717</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Cc1ccccc1-c1n[nH]c(SCc2cn3cc(Cl)ccc3n2)n1</t>
+          <t>O=C(N[C@H](NC(=S)N[C@H]1N=CN=N1)C(Cl)(Cl)Cl)C(c1ccccc1)c1ccccc1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Cc1ccccc1-c1n[nH]c(SCc2cn3cc(Cl)ccc3n2)n1</t>
+          <t>O=C(N[C@H](NC(=S)N[C@H]1N=CN=N1)C(Cl)(Cl)Cl)C(c1ccccc1)c1ccccc1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>355.85</v>
+        <v>483.81</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
         <v>4</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M51" t="n">
-        <v>58.87</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7986D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB220&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C35493901</t>
+          <t>C36532568</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>C[C@]12CC[C@H]3[C@@H](CC[C@@]4(O)C[C@H](O)CC[C@]34/C=N/Nc3ccccc3)[C@@]1(O)CC[C@@H]2C1=CC(=O)OC1</t>
+          <t>CC(C)(O)/C=C/C(=O)[C@@](C)(O)[C@@H]1[C@@H](O)C[C@]2(C)[C@@H]3CC=C4[C@@H](C=C(O)C(=O)C4(C)C)[C@@]3(C)C(=O)C[C@]12C</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>C[C@]12CC[C@H]3[C@@H](CC[C@@]4(O)C[C@H](O)CC[C@]34/C=N/Nc3ccccc3)[C@@]1(O)CC[C@@H]2C1=CC(=O)OC1</t>
+          <t>CC(C)(O)/C=C/C(=O)[C@@](C)(O)[C@@H]1[C@@H](O)C[C@]2(C)[C@@H]3CC=C4[C@@H](C=C(O)C(=O)C4(C)C)[C@@]3(C)C(=O)C[C@]12C</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3975,25 +3975,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>494.63</v>
+        <v>514.66</v>
       </c>
       <c r="H52" t="n">
         <v>4</v>
       </c>
       <c r="I52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J52" t="n">
         <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>111.38</v>
+        <v>132.13</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBC30&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C39462717</t>
+          <t>C37004675</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>O=C(N[C@H](NC(=S)N[C@H]1N=CN=N1)C(Cl)(Cl)Cl)C(c1ccccc1)c1ccccc1</t>
+          <t>C[C@H]1CCC[C@H](Nc2cc(-n3cnnn3)ccc2Cl)C1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>O=C(N[C@H](NC(=S)N[C@H]1N=CN=N1)C(Cl)(Cl)Cl)C(c1ccccc1)c1ccccc1</t>
+          <t>C[C@H]1CCC[C@H](Nc2cc(-n3cnnn3)ccc2Cl)C1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4043,16 +4043,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>483.81</v>
+        <v>291.79</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>4</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
         <v>3</v>
@@ -4061,7 +4061,7 @@
         <v>2</v>
       </c>
       <c r="M53" t="n">
-        <v>90.23999999999999</v>
+        <v>55.63</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB060&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C36532568</t>
+          <t>C00713669</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4092,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>CC(C)(O)/C=C/C(=O)[C@@](C)(O)[C@@H]1[C@@H](O)C[C@]2(C)[C@@H]3CC=C4[C@@H](C=C(O)C(=O)C4(C)C)[C@@]3(C)C(=O)C[C@]12C</t>
+          <t>O=C1c2ccccc2N[C@H](c2cccc([N+](=O)[O-])c2)N1c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CC(C)(O)/C=C/C(=O)[C@@](C)(O)[C@@H]1[C@@H](O)C[C@]2(C)[C@@H]3CC=C4[C@@H](C=C(O)C(=O)C4(C)C)[C@@]3(C)C(=O)C[C@]12C</t>
+          <t>O=C1c2ccccc2N[C@H](c2cccc([N+](=O)[O-])c2)N1c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4111,25 +4111,25 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>514.66</v>
+        <v>424.25</v>
       </c>
       <c r="H54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
         <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M54" t="n">
-        <v>132.13</v>
+        <v>75.48</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB3E0&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C37004675</t>
+          <t>C28055458</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@H](Nc2cc(-n3cnnn3)ccc2Cl)C1</t>
+          <t>Fc1ccc([C@@H]2C3=C(Nc4nnnn42)c2cc(Cl)ccc2O[C@@H]3c2cccs2)cc1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@H](Nc2cc(-n3cnnn3)ccc2Cl)C1</t>
+          <t>Fc1ccc([C@@H]2C3=C(Nc4nnnn42)c2cc(Cl)ccc2O[C@@H]3c2cccs2)cc1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4179,25 +4179,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>291.79</v>
+        <v>437.89</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>55.63</v>
+        <v>64.86</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7999A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB370&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>C00713669</t>
+          <t>C42260179</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>O=C1c2ccccc2N[C@H](c2cccc([N+](=O)[O-])c2)N1c1ccc(Br)cc1</t>
+          <t>CC(C)(C)c1cs/c(=N\S(=O)(=O)c2ccccc2C#N)[nH]1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>O=C1c2ccccc2N[C@H](c2cccc([N+](=O)[O-])c2)N1c1ccc(Br)cc1</t>
+          <t>CC(C)(C)c1cs/c(=N\S(=O)(=O)c2ccccc2C#N)[nH]1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4247,25 +4247,25 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>424.25</v>
+        <v>321.43</v>
       </c>
       <c r="H56" t="n">
         <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>75.48</v>
+        <v>86.08</v>
       </c>
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
@@ -4276,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8900&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4288,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>C28055458</t>
+          <t>C06226172</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4296,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fc1ccc([C@@H]2C3=C(Nc4nnnn42)c2cc(Cl)ccc2O[C@@H]3c2cccs2)cc1</t>
+          <t>CCn1c(O)c(/N=N/c2ccc3ccccc3n2)c2ccccc21</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Fc1ccc([C@@H]2C3=C(Nc4nnnn42)c2cc(Cl)ccc2O[C@@H]3c2cccs2)cc1</t>
+          <t>CCn1c(O)c(/N=N/c2ccc3ccccc3n2)c2ccccc21</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4315,25 +4315,25 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>437.89</v>
+        <v>316.36</v>
       </c>
       <c r="H57" t="n">
         <v>1</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>64.86</v>
+        <v>62.77</v>
       </c>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
@@ -4344,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EACE0&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4356,7 +4356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>C42260179</t>
+          <t>C54727328</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4364,12 +4364,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cs/c(=N\S(=O)(=O)c2ccccc2C#N)[nH]1</t>
+          <t>C[C@@H]1C[C@H](C)C[NH+](C(C)(C)CNC(=O)NN[C@]2(C)CCS(=O)(=O)C2)C1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cs/c(=N\S(=O)(=O)c2ccccc2C#N)[nH]1</t>
+          <t>C[C@H]1C[C@@H](C)C[NH+](C(C)(C)CNC(=O)NN[C@]2(C)CCS(=O)(=O)C2)C1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>321.43</v>
+        <v>375.56</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
         <v>2</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>86.08</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
@@ -4412,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB060&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4424,7 +4424,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>C06226172</t>
+          <t>C08692231</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -4432,12 +4432,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>CCn1c(O)c(/N=N/c2ccc3ccccc3n2)c2ccccc21</t>
+          <t>CCNc1nc(NCC)n2c(SCC(=O)N3C[C@@]4(C)C[C@@H]3CC(C)(C)C4)nnc2n1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CCn1c(O)c(/N=N/c2ccc3ccccc3n2)c2ccccc21</t>
+          <t>CCNc1nc(NCC)n2c(SCC(=O)N3C[C@@]4(C)C[C@@H]3CC(C)(C)C4)nnc2n1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -4451,25 +4451,25 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>316.36</v>
+        <v>432.6</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="n">
+        <v>8</v>
+      </c>
+      <c r="J59" t="n">
+        <v>7</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" t="n">
         <v>2</v>
       </c>
-      <c r="J59" t="n">
-        <v>3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>4</v>
-      </c>
-      <c r="L59" t="n">
-        <v>4</v>
-      </c>
       <c r="M59" t="n">
-        <v>62.77</v>
+        <v>100.34</v>
       </c>
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
@@ -4480,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB0D0&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4492,7 +4492,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>C54727328</t>
+          <t>C31118634</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -4500,12 +4500,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[C@H](C)C[NH+](C(C)(C)CNC(=O)NN[C@]2(C)CCS(=O)(=O)C2)C1</t>
+          <t>CC(=O)N1C=Cc2ccccc2[C@@H]1CC(=O)NCCCc1nn(-c2ccc(F)cc2)c(N)c1C#N</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>C[C@H]1C[C@@H](C)C[NH+](C(C)(C)CNC(=O)NN[C@]2(C)CCS(=O)(=O)C2)C1</t>
+          <t>CC(=O)N1C=Cc2ccccc2[C@@H]1CC(=O)NCCCc1nn(-c2ccc(F)cc2)c(N)c1C#N</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -4519,25 +4519,25 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>375.56</v>
+        <v>472.52</v>
       </c>
       <c r="H60" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>91.73999999999999</v>
+        <v>117.04</v>
       </c>
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr"/>
@@ -4548,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB1B0&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4560,7 +4560,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>C08692231</t>
+          <t>C35314283</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -4568,12 +4568,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>CCNc1nc(NCC)n2c(SCC(=O)N3C[C@@]4(C)C[C@@H]3CC(C)(C)C4)nnc2n1</t>
+          <t>CC(=O)NC[C@@H](C)CCC(=O)O[C@@H]1C[C@@H]2[C@@H]3CC=C4C[C@H](OC(C)=O)CC[C@]4(C)[C@@H]3CC[C@]2(C)[C@@H]1NC(C)=O</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CCNc1nc(NCC)n2c(SCC(=O)N3C[C@@]4(C)C[C@@H]3CC(C)(C)C4)nnc2n1</t>
+          <t>CC(=O)NC[C@@H](C)CCC(=O)O[C@@H]1C[C@@H]2[C@@H]3CC=C4C[C@H](OC(C)=O)CC[C@]4(C)[C@@H]3CC[C@]2(C)[C@@H]1NC(C)=O</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -4587,25 +4587,25 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>432.6</v>
+        <v>544.73</v>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
         <v>8</v>
       </c>
-      <c r="J61" t="n">
-        <v>7</v>
-      </c>
       <c r="K61" t="n">
         <v>4</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>100.34</v>
+        <v>110.8</v>
       </c>
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr"/>
@@ -4616,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA810&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C31118634</t>
+          <t>C14961716</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>CC(=O)N1C=Cc2ccccc2[C@@H]1CC(=O)NCCCc1nn(-c2ccc(F)cc2)c(N)c1C#N</t>
+          <t>COc1ccc(F)cc1C[C@H]([NH3+])COc1cncc(-c2ccc3[nH]nc(C)c3c2)c1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CC(=O)N1C=Cc2ccccc2[C@@H]1CC(=O)NCCCc1nn(-c2ccc(F)cc2)c(N)c1C#N</t>
+          <t>COc1ccc(F)cc1C[C@H]([NH3+])COc1cncc(-c2ccc3[nH]nc(C)c3c2)c1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4655,13 +4655,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>472.52</v>
+        <v>407.47</v>
       </c>
       <c r="H62" t="n">
         <v>2</v>
       </c>
       <c r="I62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
         <v>7</v>
@@ -4670,10 +4670,10 @@
         <v>4</v>
       </c>
       <c r="L62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>117.04</v>
+        <v>87.67</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4684,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB300&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C35314283</t>
+          <t>C64374288</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CC(=O)NC[C@@H](C)CCC(=O)O[C@@H]1C[C@@H]2[C@@H]3CC=C4C[C@H](OC(C)=O)CC[C@]4(C)[C@@H]3CC[C@]2(C)[C@@H]1NC(C)=O</t>
+          <t>Cc1cc(=O)[nH]c(-c2ccc(NC(=O)/C=C/c3c(C)nn(C)c3Cl)cc2)n1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CC(=O)NC[C@@H](C)CCC(=O)O[C@@H]1C[C@@H]2[C@@H]3CC=C4C[C@H](OC(C)=O)CC[C@]4(C)[C@@H]3CC[C@]2(C)[C@@H]1NC(C)=O</t>
+          <t>Cc1cc(=O)[nH]c(-c2ccc(NC(=O)/C=C/c3c(C)nn(C)c3Cl)cc2)n1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4723,25 +4723,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>544.73</v>
+        <v>383.84</v>
       </c>
       <c r="H63" t="n">
         <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>110.8</v>
+        <v>92.67</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4752,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA3B0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C14961716</t>
+          <t>C15081197</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>COc1ccc(F)cc1C[C@H]([NH3+])COc1cncc(-c2ccc3[nH]nc(C)c3c2)c1</t>
+          <t>COC(=O)[C@@H]1[C@@H](c2ccc(OC)cc2)[C@@H](C(=O)OC)/C(=N/NS(=O)(=O)c2ccc(C)cc2)C[C@]1(C)O</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>COc1ccc(F)cc1C[C@H]([NH3+])COc1cncc(-c2ccc3[nH]nc(C)c3c2)c1</t>
+          <t>COC(=O)[C@H]1/C(=N/NS(=O)(=O)c2ccc(C)cc2)C[C@](C)(O)[C@H](C(=O)OC)[C@H]1c1ccc(OC)cc1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4791,25 +4791,25 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>407.47</v>
+        <v>518.59</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
         <v>7</v>
       </c>
       <c r="K64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>87.67</v>
+        <v>140.59</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4820,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8740&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C64374288</t>
+          <t>C39722437</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Cc1cc(=O)[nH]c(-c2ccc(NC(=O)/C=C/c3c(C)nn(C)c3Cl)cc2)n1</t>
+          <t>C=CCN1C(=O)C2=C(C3CC3)CSC2=N[C@@H]1SCc1nc2cc(C(=O)[O-])ccc2c(=O)[nH]1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Cc1cc(=O)[nH]c(-c2ccc(NC(=O)/C=C/c3c(C)nn(C)c3Cl)cc2)n1</t>
+          <t>C=CCN1C(=O)C2=C(C3CC3)CSC2=N[C@@H]1SCc1nc2cc(C(=O)[O-])ccc2c(=O)[nH]1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>383.84</v>
+        <v>467.55</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>7</v>
+      </c>
+      <c r="J65" t="n">
+        <v>7</v>
+      </c>
+      <c r="K65" t="n">
+        <v>5</v>
+      </c>
+      <c r="L65" t="n">
         <v>2</v>
       </c>
-      <c r="I65" t="n">
-        <v>4</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3</v>
-      </c>
-      <c r="L65" t="n">
-        <v>3</v>
-      </c>
       <c r="M65" t="n">
-        <v>92.67</v>
+        <v>118.55</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4888,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8E40&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C15081197</t>
+          <t>C40387911</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>COC(=O)[C@@H]1[C@@H](c2ccc(OC)cc2)[C@@H](C(=O)OC)/C(=N/NS(=O)(=O)c2ccc(C)cc2)C[C@]1(C)O</t>
+          <t>CCc1nn2c(ncc3c(=O)n(CCc4c[nH+]c[nH]4)ccc32)c1-c1ccccc1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>COC(=O)[C@H]1/C(=N/NS(=O)(=O)c2ccc(C)cc2)C[C@](C)(O)[C@H](C(=O)OC)[C@H]1c1ccc(OC)cc1</t>
+          <t>CCc1nn2c(ncc3c(=O)n(CCc4c[nH+]c[nH]4)ccc32)c1-c1ccccc1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4927,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>518.59</v>
+        <v>385.45</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>140.59</v>
+        <v>82.12</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9F50&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C39722437</t>
+          <t>C66883357</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>C=CCN1C(=O)C2=C(C3CC3)CSC2=N[C@@H]1SCc1nc2cc(C(=O)[O-])ccc2c(=O)[nH]1</t>
+          <t>CCN(C1CC[NH+](Cc2cc(=O)oc3c(C)c(O)ccc23)CC1)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>C=CCN1C(=O)C2=C(C3CC3)CSC2=N[C@@H]1SCc1nc2cc(C(=O)[O-])ccc2c(=O)[nH]1</t>
+          <t>CCN(C1CC[NH+](Cc2cc(=O)oc3c(C)c(O)ccc23)CC1)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4995,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>467.55</v>
+        <v>395.5</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J67" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L67" t="n">
         <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>118.55</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5024,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8040&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5036,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C40387911</t>
+          <t>C24843184</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5044,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CCc1nn2c(ncc3c(=O)n(CCc4c[nH+]c[nH]4)ccc32)c1-c1ccccc1</t>
+          <t>C=CCNc1nc(C(=O)OCc2cc(O)oc3cc(=[NH+]C(C)=O)ccc2-3)cs1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CCc1nn2c(ncc3c(=O)n(CCc4c[nH+]c[nH]4)ccc32)c1-c1ccccc1</t>
+          <t>C=CCNc1nc(C(=O)OCc2cc(O)oc3cc(=[NH+]C(C)=O)ccc2-3)cs1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5063,25 +5063,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>385.45</v>
+        <v>400.44</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I68" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>82.12</v>
+        <v>115.63</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5092,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAF80&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C66883357</t>
+          <t>C38814897</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CCN(C1CC[NH+](Cc2cc(=O)oc3c(C)c(O)ccc23)CC1)S(C)(=O)=O</t>
+          <t>CC1=C(C2=NN=C(C(=O)N/N=C/C3=c4ccccc4=[NH+]C3)C2)[C@@H](C)N(c2ccccc2)N1</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CCN(C1CC[NH+](Cc2cc(=O)oc3c(C)c(O)ccc23)CC1)S(C)(=O)=O</t>
+          <t>CC1=C(C2=NN=C(C(=O)N/N=C/C3=c4ccccc4=[NH+]C3)C2)[C@@H](C)N(c2ccccc2)N1</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5131,25 +5131,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>395.5</v>
+        <v>426.5</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J69" t="n">
         <v>5</v>
       </c>
       <c r="K69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L69" t="n">
         <v>2</v>
       </c>
       <c r="M69" t="n">
-        <v>92.26000000000001</v>
+        <v>95.42</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7991C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA880&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C24843184</t>
+          <t>C63517445</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5180,12 +5180,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>C=CCNc1nc(C(=O)OCc2cc(O)oc3cc(=[NH+]C(C)=O)ccc2-3)cs1</t>
+          <t>Nc1ncnc2c1ncn2CCC[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>C=CCNc1nc(C(=O)OCc2cc(O)oc3cc(=[NH+]C(C)=O)ccc2-3)cs1</t>
+          <t>Nc1ncnc2c1ncn2CCC[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5199,25 +5199,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>400.44</v>
+        <v>381.46</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L70" t="n">
         <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>115.63</v>
+        <v>92.52</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5228,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7990E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA8F0&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5240,7 +5240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C38814897</t>
+          <t>C38743573</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CC1=C(C2=NN=C(C(=O)N/N=C/C3=c4ccccc4=[NH+]C3)C2)[C@@H](C)N(c2ccccc2)N1</t>
+          <t>COc1ccc(/C=C/C2=NN3[C@H](NN[C@H]3[C@@H]3C=C(c4ccc(OC)cc4)N=N3)S2)cc1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CC1=C(C2=NN=C(C(=O)N/N=C/C3=c4ccccc4=[NH+]C3)C2)[C@@H](C)N(c2ccccc2)N1</t>
+          <t>COc1ccc(/C=C/C2=NN3[C@H](NN[C@H]3[C@@H]3C=C(c4ccc(OC)cc4)N=N3)S2)cc1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5267,16 +5267,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>426.5</v>
+        <v>434.53</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K71" t="n">
         <v>5</v>
@@ -5285,7 +5285,7 @@
         <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>95.42</v>
+        <v>82.84</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5296,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA7A0&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C63517445</t>
+          <t>C08042713</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5316,12 +5316,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Nc1ncnc2c1ncn2CCC[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCO2</t>
+          <t>CN(CC(=O)N/N=C/c1ccc([N+](=O)[O-])cc1)S(=O)(=O)c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Nc1ncnc2c1ncn2CCC[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCO2</t>
+          <t>CN(CC(=O)N/N=C/c1ccc([N+](=O)[O-])cc1)S(=O)(=O)c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5335,25 +5335,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>381.46</v>
+        <v>410.84</v>
       </c>
       <c r="H72" t="n">
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>5</v>
+      </c>
+      <c r="J72" t="n">
+        <v>7</v>
+      </c>
+      <c r="K72" t="n">
         <v>2</v>
       </c>
-      <c r="I72" t="n">
-        <v>6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5</v>
-      </c>
       <c r="L72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>92.52</v>
+        <v>121.98</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5364,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E86D0&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C38743573</t>
+          <t>C13450627</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>COc1ccc(/C=C/C2=NN3[C@H](NN[C@H]3[C@@H]3C=C(c4ccc(OC)cc4)N=N3)S2)cc1</t>
+          <t>CC1([C@H]2CC[C@@H]3[C@@H]4CC[C@@H]5CC6(C/C(=N/O)[C@@]5(C)[C@@H]4[C@@H](O)C[C@@]32C)OCCO6)OCCO1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>COc1ccc(/C=C/C2=NN3[C@H](NN[C@H]3[C@@H]3C=C(c4ccc(OC)cc4)N=N3)S2)cc1</t>
+          <t>CC1([C@H]2CC[C@@H]3[C@@H]4CC[C@@H]5CC6(C/C(=N/O)[C@@]5(C)[C@@H]4[C@@H](O)C[C@]23C)OCCO6)OCCO1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5399,11 +5399,11 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>434.53</v>
+        <v>449.59</v>
       </c>
       <c r="H73" t="n">
         <v>2</v>
@@ -5412,16 +5412,16 @@
         <v>6</v>
       </c>
       <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
         <v>6</v>
       </c>
-      <c r="K73" t="n">
-        <v>5</v>
-      </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M73" t="n">
-        <v>82.84</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5432,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7982E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA960&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5444,7 +5444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C08042713</t>
+          <t>C17707166</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5452,12 +5452,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CN(CC(=O)N/N=C/c1ccc([N+](=O)[O-])cc1)S(=O)(=O)c1ccc(Cl)cc1</t>
+          <t>CC(C)CCn1c(SCc2nc(N)nc(N)n2)nc2sc3c(c2c1=O)CC[C@@H](C)C3</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CN(CC(=O)N/N=C/c1ccc([N+](=O)[O-])cc1)S(=O)(=O)c1ccc(Cl)cc1</t>
+          <t>CC(C)CCn1c(SCc2nc(N)nc(N)n2)nc2sc3c(c2c1=O)CC[C@@H](C)C3</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5467,29 +5467,29 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Train</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>410.84</v>
+        <v>445.62</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J74" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>121.98</v>
+        <v>125.6</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7980B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAEA0&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C13450627</t>
+          <t>C11052640</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CC1([C@H]2CC[C@@H]3[C@@H]4CC[C@@H]5CC6(C/C(=N/O)[C@@]5(C)[C@@H]4[C@@H](O)C[C@@]32C)OCCO6)OCCO1</t>
+          <t>Cc1sc2nc([C@@H](C)OC(=O)CCNS(=O)(=O)c3ccc4ccccc4c3)[nH]c(=O)c2c1C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>CC1([C@H]2CC[C@@H]3[C@@H]4CC[C@@H]5CC6(C/C(=N/O)[C@@]5(C)[C@@H]4[C@@H](O)C[C@]23C)OCCO6)OCCO1</t>
+          <t>Cc1sc2nc([C@@H](C)OC(=O)CCNS(=O)(=O)c3ccc4ccccc4c3)[nH]c(=O)c2c1C</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5539,7 +5539,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>449.59</v>
+        <v>485.59</v>
       </c>
       <c r="H75" t="n">
         <v>2</v>
@@ -5548,16 +5548,16 @@
         <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M75" t="n">
-        <v>89.73999999999999</v>
+        <v>118.22</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5568,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E98C0&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5580,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C17707166</t>
+          <t>C38760040</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CC(C)CCn1c(SCc2nc(N)nc(N)n2)nc2sc3c(c2c1=O)CC[C@@H](C)C3</t>
+          <t>Cc1ccc(N(C)C)c([C@H](c2c([O-])[nH]c(=S)n(C(C)C)c2=O)[C@@H]2C(=O)NC(=S)N(C(C)C)[C@H]2O)c1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CC(C)CCn1c(SCc2nc(N)nc(N)n2)nc2sc3c(c2c1=O)CC[C@@H](C)C3</t>
+          <t>Cc1ccc(N(C)C)c([C@H](c2c([O-])[nH]c(=S)n(C(C)C)c2=O)[C@@H]2C(=O)NC(=S)N(C(C)C)[C@H]2O)c1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5607,10 +5607,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>445.62</v>
+        <v>518.6900000000001</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I76" t="n">
         <v>8</v>
@@ -5619,13 +5619,13 @@
         <v>6</v>
       </c>
       <c r="K76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>125.6</v>
+        <v>116.66</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5636,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9850&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5648,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C11052640</t>
+          <t>C35757799</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@@H](C)OC(=O)CCNS(=O)(=O)c3ccc4ccccc4c3)[nH]c(=O)c2c1C</t>
+          <t>O=C(Nc1cccc([C@H]2OC(=O)N(Cc3ccccc3)[C@H]2C(=O)NC[C@@H]2CCCO2)c1)c1ccccc1F</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@@H](C)OC(=O)CCNS(=O)(=O)c3ccc4ccccc4c3)[nH]c(=O)c2c1C</t>
+          <t>O=C(Nc1cccc([C@H]2OC(=O)N(Cc3ccccc3)[C@H]2C(=O)NC[C@@H]2CCCO2)c1)c1ccccc1F</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5675,25 +5675,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>485.59</v>
+        <v>517.5599999999999</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>118.22</v>
+        <v>96.97</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5704,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E95B0&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C38760040</t>
+          <t>C36188703</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5724,12 +5724,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Cc1ccc(N(C)C)c([C@H](c2c([O-])[nH]c(=S)n(C(C)C)c2=O)[C@@H]2C(=O)NC(=S)N(C(C)C)[C@H]2O)c1</t>
+          <t>CCCCN1C(=O)c2ccc(C(=O)O[C@@H](C)C(=O)NC(=O)NC3CCCCC3)cc2C1=O</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cc1ccc(N(C)C)c([C@H](c2c([O-])[nH]c(=S)n(C(C)C)c2=O)[C@@H]2C(=O)NC(=S)N(C(C)C)[C@H]2O)c1</t>
+          <t>CCCCN1C(=O)c2ccc(C(=O)O[C@@H](C)C(=O)NC(=O)NC3CCCCC3)cc2C1=O</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5743,25 +5743,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>518.6900000000001</v>
+        <v>443.5</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I78" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K78" t="n">
         <v>3</v>
       </c>
       <c r="L78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M78" t="n">
-        <v>116.66</v>
+        <v>121.88</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5772,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C7985F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8B30&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5784,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C35757799</t>
+          <t>C27832163</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccc([C@H]2OC(=O)N(Cc3ccccc3)[C@H]2C(=O)NC[C@@H]2CCCO2)c1)c1ccccc1F</t>
+          <t>CC(C)/[NH+]=C/c1c([O-])c([N+](=O)[O-])cc2oc3c(c12)CCCC3</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccc([C@H]2OC(=O)N(Cc3ccccc3)[C@H]2C(=O)NC[C@@H]2CCCO2)c1)c1ccccc1F</t>
+          <t>CC(C)/[NH+]=C/c1c([O-])c([N+](=O)[O-])cc2oc3c(c12)CCCC3</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5811,25 +5811,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>517.5599999999999</v>
+        <v>302.33</v>
       </c>
       <c r="H79" t="n">
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>3</v>
+      </c>
+      <c r="L79" t="n">
         <v>2</v>
       </c>
-      <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>8</v>
-      </c>
-      <c r="K79" t="n">
-        <v>5</v>
-      </c>
-      <c r="L79" t="n">
-        <v>3</v>
-      </c>
       <c r="M79" t="n">
-        <v>96.97</v>
+        <v>93.31</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5840,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA260&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5852,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C36188703</t>
+          <t>C12783993</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5860,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CCCCN1C(=O)c2ccc(C(=O)O[C@@H](C)C(=O)NC(=O)NC3CCCCC3)cc2C1=O</t>
+          <t>COC(=O)c1sc(N)c(C(=O)OC)c1CSc1nnc(-c2ccccc2)n1Cc1ccco1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CCCCN1C(=O)c2ccc(C(=O)O[C@@H](C)C(=O)NC(=O)NC3CCCCC3)cc2C1=O</t>
+          <t>COC(=O)c1sc(N)c(C(=O)OC)c1CSc1nnc(-c2ccccc2)n1Cc1ccco1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5879,25 +5879,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>443.5</v>
+        <v>484.56</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J80" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>121.88</v>
+        <v>122.47</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA030&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C27832163</t>
+          <t>C26575932</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CC(C)/[NH+]=C/c1c([O-])c([N+](=O)[O-])cc2oc3c(c12)CCCC3</t>
+          <t>CCC[C@H]1CC[C@H](c2ccc(-c3ccccc3-c3nnn[n-]3)cc2)n2c1n[nH]c2=O</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CC(C)/[NH+]=C/c1c([O-])c([N+](=O)[O-])cc2oc3c(c12)CCCC3</t>
+          <t>CCC[C@H]1CC[C@H](c2ccc(-c3ccccc3-c3nnn[n-]3)cc2)n2c1n[nH]c2=O</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5947,25 +5947,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>302.33</v>
+        <v>400.47</v>
       </c>
       <c r="H81" t="n">
         <v>1</v>
       </c>
       <c r="I81" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>93.31</v>
+        <v>103.45</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAB20&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C12783993</t>
+          <t>C27559058</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>COC(=O)c1sc(N)c(C(=O)OC)c1CSc1nnc(-c2ccccc2)n1Cc1ccco1</t>
+          <t>C=CCNC(=O)C[NH+]1CCN(CC(=O)NCCc2ccc(S(N)(=O)=O)cc2)CC1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>COC(=O)c1sc(N)c(C(=O)OC)c1CSc1nnc(-c2ccccc2)n1Cc1ccco1</t>
+          <t>C=CCNC(=O)C[NH+]1CCN(CC(=O)NCCc2ccc(S(N)(=O)=O)cc2)CC1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6015,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>484.56</v>
+        <v>424.55</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
-        <v>122.47</v>
+        <v>126.04</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6044,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB220&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C26575932</t>
+          <t>C05100508</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6064,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CCC[C@H]1CC[C@H](c2ccc(-c3ccccc3-c3nnn[n-]3)cc2)n2c1n[nH]c2=O</t>
+          <t>CCCOc1ccc(NC(=O)[C@@H]2O[C@H]3OC(C)(C)O[C@@H]3[C@H]3OC(C)(C)O[C@H]32)cc1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CCC[C@H]1CC[C@H](c2ccc(-c3ccccc3-c3nnn[n-]3)cc2)n2c1n[nH]c2=O</t>
+          <t>CCCOc1ccc(NC(=O)[C@@H]2O[C@H]3OC(C)(C)O[C@@H]3[C@H]3OC(C)(C)O[C@H]32)cc1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6083,25 +6083,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>400.47</v>
+        <v>407.46</v>
       </c>
       <c r="H83" t="n">
         <v>1</v>
       </c>
       <c r="I83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J83" t="n">
         <v>5</v>
       </c>
       <c r="K83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>103.45</v>
+        <v>84.48</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6112,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAA40&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C27559058</t>
+          <t>C40916915</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6132,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C=CCNC(=O)C[NH+]1CCN(CC(=O)NCCc2ccc(S(N)(=O)=O)cc2)CC1</t>
+          <t>CC1=C(C(N)=O)[C@H](c2cc(Br)ccc2OCc2ccc(Cl)cc2)n2ncnc2N1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C=CCNC(=O)C[NH+]1CCN(CC(=O)NCCc2ccc(S(N)(=O)=O)cc2)CC1</t>
+          <t>CC1=C(C(N)=O)[C@H](c2cc(Br)ccc2OCc2ccc(Cl)cc2)n2ncnc2N1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6151,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>424.55</v>
+        <v>474.75</v>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I84" t="n">
         <v>5</v>
       </c>
       <c r="J84" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>126.04</v>
+        <v>95.06</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAB90&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C05100508</t>
+          <t>CHEMBL2036871</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(NC(=O)[C@@H]2O[C@H]3OC(C)(C)O[C@@H]3[C@H]3OC(C)(C)O[C@H]32)cc1</t>
+          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(NC(=O)[C@@H]2O[C@H]3OC(C)(C)O[C@@H]3[C@H]3OC(C)(C)O[C@H]32)cc1</t>
+          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6215,40 +6215,66 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>407.46</v>
+        <v>321.34</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J85" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K85" t="n">
         <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M85" t="n">
-        <v>84.48</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
+        <v>74.70999999999999</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>92000</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>CHEMBL2038024</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Inhibition of recombinant FAK using poly(Glu,Tyr)4 as substrate assessed as inhibition of [33P]Phosphate incorporation into substrate after 80 mins by scintillation counting</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA0A0&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6260,7 +6286,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C40916915</t>
+          <t>CHEMBL3261189</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6268,12 +6294,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CC1=C(C(N)=O)[C@H](c2cc(Br)ccc2OCc2ccc(Cl)cc2)n2ncnc2N1</t>
+          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CC1=C(C(N)=O)[C@H](c2cc(Br)ccc2OCc2ccc(Cl)cc2)n2ncnc2N1</t>
+          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6283,20 +6309,20 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>External</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>474.75</v>
+        <v>451.44</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
         <v>4</v>
@@ -6305,18 +6331,44 @@
         <v>3</v>
       </c>
       <c r="M86" t="n">
-        <v>95.06</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
+        <v>114.95</v>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>IC50</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>'='</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>nM</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>30070</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>CHEMBL3268423</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Inhibition of FAK (unknown origin) assembly after 20 mins by turbidimetric method</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>single protein format</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E85F0&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6328,7 +6380,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CHEMBL2036871</t>
+          <t>CHEMBL2425111</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6336,12 +6388,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
+          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
+          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6355,10 +6407,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>321.34</v>
+        <v>226.04</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>4</v>
@@ -6367,17 +6419,17 @@
         <v>1</v>
       </c>
       <c r="K87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M87" t="n">
-        <v>74.70999999999999</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="N87" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Kd</t>
         </is>
       </c>
       <c r="O87" t="inlineStr">
@@ -6391,16 +6443,16 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>92000</v>
+        <v>95000</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>CHEMBL2038024</t>
+          <t>CHEMBL2427451</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>Inhibition of recombinant FAK using poly(Glu,Tyr)4 as substrate assessed as inhibition of [33P]Phosphate incorporation into substrate after 80 mins by scintillation counting</t>
+          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -6410,7 +6462,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAFF0&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6422,7 +6474,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CHEMBL3261189</t>
+          <t>CHEMBL941</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6430,12 +6482,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
+          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
+          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6449,29 +6501,29 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>451.44</v>
+        <v>493.62</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J88" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M88" t="n">
-        <v>114.95</v>
+        <v>86.28</v>
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="O88" t="inlineStr">
@@ -6481,20 +6533,20 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>30070</v>
+        <v>-62</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>CHEMBL3268423</t>
+          <t>CHEMBL4153877</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>Inhibition of FAK (unknown origin) assembly after 20 mins by turbidimetric method</t>
+          <t>Inhibition of FAK (unknown origin) at 10 uM by [33P]-ATP radiometric assay</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
@@ -6504,7 +6556,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA110&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6516,7 +6568,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHEMBL2425111</t>
+          <t>CHEMBL166031</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6524,12 +6576,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
+          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
+          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6543,29 +6595,29 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>226.04</v>
+        <v>352.39</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M89" t="n">
-        <v>67.34999999999999</v>
+        <v>89.28</v>
       </c>
       <c r="N89" t="inlineStr">
         <is>
-          <t>Kd</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="O89" t="inlineStr">
@@ -6575,20 +6627,20 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>95000</v>
+        <v>11.65</v>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>CHEMBL2427451</t>
+          <t>CHEMBL3630493</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
+          <t>Inhibition of FAK (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
@@ -6598,7 +6650,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C799F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9AF0&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6610,7 +6662,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CHEMBL941</t>
+          <t>CHEMBL2216825</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6618,12 +6670,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
+          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
+          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6637,25 +6689,25 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>493.62</v>
+        <v>457.48</v>
       </c>
       <c r="H90" t="n">
         <v>2</v>
       </c>
       <c r="I90" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J90" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K90" t="n">
         <v>5</v>
       </c>
       <c r="L90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>86.28</v>
+        <v>122.6</v>
       </c>
       <c r="N90" t="inlineStr">
         <is>
@@ -6673,16 +6725,16 @@
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>-62</v>
+        <v>12</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>CHEMBL4153877</t>
+          <t>CHEMBL1019637</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>Inhibition of FAK (unknown origin) at 10 uM by [33P]-ATP radiometric assay</t>
+          <t>Inhibition of PTK2 at 1 uM</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
@@ -6692,7 +6744,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C798CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8D60&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6704,7 +6756,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CHEMBL166031</t>
+          <t>CHEMBL3758768</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6712,12 +6764,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
+          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
+          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6731,7 +6783,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>352.39</v>
+        <v>363.44</v>
       </c>
       <c r="H91" t="n">
         <v>2</v>
@@ -6740,16 +6792,16 @@
         <v>5</v>
       </c>
       <c r="J91" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M91" t="n">
-        <v>89.28</v>
+        <v>67.27</v>
       </c>
       <c r="N91" t="inlineStr">
         <is>
@@ -6767,16 +6819,16 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>11.65</v>
+        <v>15</v>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>CHEMBL3630493</t>
+          <t>CHEMBL3761601</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>Inhibition of FAK (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
+          <t>Inhibition of PTK2 (unknown origin) at 500 nM</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
@@ -6786,7 +6838,7 @@
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8970&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6798,7 +6850,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CHEMBL2216825</t>
+          <t>CHEMBL607196</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6806,12 +6858,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6825,25 +6877,25 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>457.48</v>
+        <v>380.45</v>
       </c>
       <c r="H92" t="n">
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
         <v>2</v>
       </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
       <c r="J92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K92" t="n">
         <v>5</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M92" t="n">
-        <v>122.6</v>
+        <v>49.41</v>
       </c>
       <c r="N92" t="inlineStr">
         <is>
@@ -6861,16 +6913,16 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>CHEMBL1019637</t>
+          <t>CHEMBL1069301</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>Inhibition of PTK2 at 1 uM</t>
+          <t>Inhibition of FAK at 10 uM</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
@@ -6880,7 +6932,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA650&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6892,7 +6944,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CHEMBL3758768</t>
+          <t>CHEMBL1241462</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6900,12 +6952,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
+          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
+          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6919,25 +6971,25 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>363.44</v>
+        <v>228.3</v>
       </c>
       <c r="H93" t="n">
         <v>2</v>
       </c>
       <c r="I93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K93" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>67.27</v>
+        <v>53.6</v>
       </c>
       <c r="N93" t="inlineStr">
         <is>
@@ -6959,12 +7011,12 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>CHEMBL3761601</t>
+          <t>CHEMBL1246553</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>Inhibition of PTK2 (unknown origin) at 500 nM</t>
+          <t>Inhibition of FAK at 5 uM</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
@@ -6974,7 +7026,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB140&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6986,7 +7038,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHEMBL607196</t>
+          <t>CHEMBL519311</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -6994,12 +7046,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
+          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
+          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -7013,25 +7065,25 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>380.45</v>
+        <v>419.57</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>49.41</v>
+        <v>99.84999999999999</v>
       </c>
       <c r="N94" t="inlineStr">
         <is>
@@ -7049,16 +7101,16 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>CHEMBL1069301</t>
+          <t>CHEMBL953401</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>Inhibition of FAK at 10 uM</t>
+          <t>Inhibition of FAK at 10 uM by HTRF assay relative to control</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
@@ -7068,7 +7120,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79B840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA5E0&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -7080,7 +7132,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHEMBL1241462</t>
+          <t>CHEMBL2012574</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -7088,12 +7140,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
+          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
+          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -7107,25 +7159,25 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>228.3</v>
+        <v>337.35</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>3</v>
       </c>
       <c r="J95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K95" t="n">
         <v>3</v>
       </c>
       <c r="L95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M95" t="n">
-        <v>53.6</v>
+        <v>53.07</v>
       </c>
       <c r="N95" t="inlineStr">
         <is>
@@ -7143,16 +7195,16 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>CHEMBL1246553</t>
+          <t>CHEMBL2014152</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>Inhibition of FAK at 5 uM</t>
+          <t>Inhibition of FAK at 10 uM</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
@@ -7162,198 +7214,10 @@
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8660&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>CHEMBL519311</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G96" t="n">
-        <v>419.57</v>
-      </c>
-      <c r="H96" t="n">
-        <v>2</v>
-      </c>
-      <c r="I96" t="n">
-        <v>8</v>
-      </c>
-      <c r="J96" t="n">
-        <v>7</v>
-      </c>
-      <c r="K96" t="n">
-        <v>3</v>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="N96" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O96" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P96" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q96" t="n">
-        <v>3</v>
-      </c>
-      <c r="R96" t="inlineStr">
-        <is>
-          <t>CHEMBL953401</t>
-        </is>
-      </c>
-      <c r="S96" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T96" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U96" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79BED0&gt;</t>
-        </is>
-      </c>
-      <c r="V96" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>CHEMBL2012574</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G97" t="n">
-        <v>337.35</v>
-      </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
-      <c r="J97" t="n">
-        <v>5</v>
-      </c>
-      <c r="K97" t="n">
-        <v>3</v>
-      </c>
-      <c r="L97" t="n">
-        <v>3</v>
-      </c>
-      <c r="M97" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="N97" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P97" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q97" t="n">
-        <v>0</v>
-      </c>
-      <c r="R97" t="inlineStr">
-        <is>
-          <t>CHEMBL2014152</t>
-        </is>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM</t>
-        </is>
-      </c>
-      <c r="T97" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001D02C79A570&gt;</t>
-        </is>
-      </c>
-      <c r="V97" t="inlineStr">
         <is>
           <t>G2</t>
         </is>

--- a/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_train.xlsx
+++ b/F_dataset/DUD-E/FAK1/FAK1_preprocessing/FAK1_train.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089B60&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL488247</t>
+          <t>CHEMBL452341</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CN(c1ccccc1CNc1nc(Nc2ccc(S(C)(=O)=O)cc2)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>CN(c1ccccc1CNc1nc(Nc2ccc3c(c2)CS(=O)(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CN(c1ccccc1CNc1nc(Nc2ccc(S(C)(=O)=O)cc2)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>CN(c1ccccc1CNc1nc(Nc2ccc3c(c2)CS(=O)(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>529.5700000000001</v>
+        <v>542.5700000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
         <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>121.36</v>
+        <v>133.39</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BCF20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089D20&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL452341</t>
+          <t>CHEMBL513744</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CN(c1ccccc1CNc1nc(Nc2ccc3c(c2)CS(=O)(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>CN(c1cccc(CNc2nc(Nc3ccc4c(c3)CC(=O)N4)ncc2C(F)(F)F)c1)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CN(c1ccccc1CNc1nc(Nc2ccc3c(c2)CS(=O)(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>CN(c1cccc(CNc2nc(Nc3ccc4c(c3)CC(=O)N4)ncc2C(F)(F)F)c1)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>542.5700000000001</v>
+        <v>506.51</v>
       </c>
       <c r="H4" t="n">
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -729,7 +729,7 @@
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>133.39</v>
+        <v>116.32</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089A80&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL513744</t>
+          <t>CHEMBL514554</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CN(c1cccc(CNc2nc(Nc3ccc4c(c3)CC(=O)N4)ncc2C(F)(F)F)c1)S(C)(=O)=O</t>
+          <t>CS(=O)(=O)c1cccc(CNc2nc(Nc3ccc4c(c3)CCC(=O)N4)ncc2C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CN(c1cccc(CNc2nc(Nc3ccc4c(c3)CC(=O)N4)ncc2C(F)(F)F)c1)S(C)(=O)=O</t>
+          <t>CS(=O)(=O)c1cccc(CNc2nc(Nc3ccc4c(c3)CCC(=O)N4)ncc2C(F)(F)F)c1</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>506.51</v>
+        <v>491.5</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -788,7 +788,7 @@
         <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K5" t="n">
         <v>4</v>
@@ -797,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>116.32</v>
+        <v>113.08</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089850&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL514554</t>
+          <t>CHEMBL207605</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1cccc(CNc2nc(Nc3ccc4c(c3)CCC(=O)N4)ncc2C(F)(F)F)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1cccc(CNc2nc(Nc3ccc4c(c3)CCC(=O)N4)ncc2C(F)(F)F)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>491.5</v>
+        <v>448.48</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K6" t="n">
         <v>4</v>
       </c>
       <c r="L6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>113.08</v>
+        <v>107.73</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F2130897E0&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089770&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089380&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213088190&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL470317</t>
+          <t>CHEMBL426311</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,12 +1100,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>N#Cc1cnc(Nc2ccc3c(c2)CC(=O)N3)nc1NCc1ccccn1</t>
+          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)CCC3)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N#Cc1cnc(Nc2ccc3c(c2)CC(=O)N3)nc1NCc1ccccn1</t>
+          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)CCC3)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1119,16 +1119,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>357.38</v>
+        <v>393.45</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K10" t="n">
         <v>4</v>
@@ -1137,7 +1137,7 @@
         <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>115.62</v>
+        <v>81.63</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308BE60&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL426311</t>
+          <t>CHEMBL205098</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)CCC3)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccccn4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3c(n2)N(c2ccccn2)CCC3)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccccn4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1187,13 +1187,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>393.45</v>
+        <v>377.4</v>
       </c>
       <c r="H11" t="n">
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" t="n">
         <v>6</v>
@@ -1202,10 +1202,10 @@
         <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>81.63</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308BD10&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL205098</t>
+          <t>CHEMBL207614</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,12 +1236,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccccn4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccccn4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>377.4</v>
+        <v>390.44</v>
       </c>
       <c r="H12" t="n">
         <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
         <v>6</v>
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>83.31999999999999</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308BC30&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL377957</t>
+          <t>CHEMBL206876</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>COc1ccc(C)c(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(Cc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>COc1ccc(C)c(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(Cc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1323,25 +1323,25 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>331.38</v>
+        <v>458.48</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
+        <v>9</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+      <c r="K13" t="n">
         <v>5</v>
       </c>
-      <c r="J13" t="n">
-        <v>4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4</v>
-      </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>64.86</v>
+        <v>124.89</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308BBC0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL207614</t>
+          <t>CHEMBL208939</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,12 +1372,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C)c4)c3n2)cc(OC)c1OC</t>
+          <t>CNC(=O)c1ccccc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C)c4)c3n2)cc(OC)c1OC</t>
+          <t>CNC(=O)c1ccccc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1391,16 +1391,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>390.44</v>
+        <v>433.47</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K14" t="n">
         <v>4</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>70.43000000000001</v>
+        <v>99.53</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9620&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308BA70&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL208939</t>
+          <t>CHEMBL206797</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,12 +1440,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
+          <t>Cc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CNC(=O)c1ccccc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
+          <t>Cc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1459,16 +1459,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>433.47</v>
+        <v>301.35</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
@@ -1477,7 +1477,7 @@
         <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>99.53</v>
+        <v>55.63</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E94D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308BA00&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL378661</t>
+          <t>CHEMBL205942</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,12 +1508,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CCNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>Cc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CCNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)c1</t>
+          <t>Cc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>447.5</v>
+        <v>301.35</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
         <v>4</v>
@@ -1545,7 +1545,7 @@
         <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>99.53</v>
+        <v>55.63</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308B220&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL205942</t>
+          <t>CHEMBL207147</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Cc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cc1cccc(Nc2ncc3ccn(-c4ccccn4)c3n2)c1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1595,16 +1595,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>301.35</v>
+        <v>411.85</v>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
@@ -1613,7 +1613,7 @@
         <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>55.63</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308B4C0&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL208734</t>
+          <t>CHEMBL207820</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,12 +1644,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4CO)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4F)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccccc4CO)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cnccc4F)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1663,16 +1663,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>406.44</v>
+        <v>395.39</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K18" t="n">
         <v>4</v>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>90.66</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308B530&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL207147</t>
+          <t>CHEMBL379655</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccc(SC)cc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccnc(Cl)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4ccc(SC)cc4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>411.85</v>
+        <v>422.51</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -1740,7 +1740,7 @@
         <v>7</v>
       </c>
       <c r="J19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>83.31999999999999</v>
+        <v>70.43000000000001</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308B290&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL379655</t>
+          <t>CHEMBL1084546</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,32 +1780,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccc(SC)cc4)c3n2)cc(OC)c1OC</t>
+          <t>CN(c1ncccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccc(SC)cc4)c3n2)cc(OC)c1OC</t>
+          <t>CN(c1ncccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>422.51</v>
+        <v>507.5</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J20" t="n">
         <v>7</v>
@@ -1814,10 +1814,10 @@
         <v>4</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>70.43000000000001</v>
+        <v>129.21</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308B990&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL1084546</t>
+          <t>CHEMBL471520</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>CN(c1ncccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CN(c1ncccc1CNc1nc(Nc2ccc3c(c2)CC(=O)N3)ncc1C(F)(F)F)S(C)(=O)=O</t>
+          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1867,16 +1867,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>507.5</v>
+        <v>399.38</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K21" t="n">
         <v>4</v>
@@ -1885,7 +1885,7 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>129.21</v>
+        <v>78.94</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089A10&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL471520</t>
+          <t>CHEMBL207131</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(C(F)(F)F)c(NCc4ccccc4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)O)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>399.38</v>
+        <v>420.43</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K22" t="n">
         <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>78.94</v>
+        <v>107.73</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308B1B0&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL377708</t>
+          <t>CHEMBL470316</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN5CCCC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(Br)c(NCc4ccccn4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN5CCCC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(Br)c(NCc4ccccn4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>516.6</v>
+        <v>411.26</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>102.77</v>
+        <v>91.83</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308B0D0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL511152</t>
+          <t>CHEMBL377708</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(Cl)c(NCc4ccccn4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN5CCCC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>O=C1Cc2cc(Nc3ncc(Cl)c(NCc4ccccn4)n3)ccc2N1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCN5CCCC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>366.81</v>
+        <v>516.6</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
+        <v>10</v>
+      </c>
+      <c r="K24" t="n">
         <v>5</v>
       </c>
-      <c r="K24" t="n">
-        <v>4</v>
-      </c>
       <c r="L24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>91.83</v>
+        <v>102.77</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E93F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308ADC0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL206524</t>
+          <t>CHEMBL511152</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(Cl)c(NCc4ccccn4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>O=C1Cc2cc(Nc3ncc(Cl)c(NCc4ccccn4)n3)ccc2N1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>429.48</v>
+        <v>366.81</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>94.22</v>
+        <v>91.83</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E90E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308ACE0&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL209044</t>
+          <t>CHEMBL206524</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCC#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,25 +2207,25 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>472.51</v>
+        <v>429.48</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>124.89</v>
+        <v>94.22</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308AC00&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL207015</t>
+          <t>CHEMBL439154</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C#N)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CC(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>401.43</v>
+        <v>473.53</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>4</v>
       </c>
       <c r="M27" t="n">
-        <v>94.22</v>
+        <v>99.53</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E97E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308AB90&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL207737</t>
+          <t>CHEMBL209044</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(F)(F)F)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(F)(F)F)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(CCc5nn[nH]n5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>444.41</v>
+        <v>472.51</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
-        <v>70.43000000000001</v>
+        <v>124.89</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308AAB0&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL380226</t>
+          <t>CHEMBL207015</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCC#N)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCC#N)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C#N)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,16 +2411,16 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>459.47</v>
+        <v>401.43</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
         <v>4</v>
@@ -2429,7 +2429,7 @@
         <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>136.21</v>
+        <v>94.22</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308A810&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL205316</t>
+          <t>CHEMBL380312</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>COc1ccncc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCC#N)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>COc1ccncc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCC#N)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,16 +2479,16 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>407.43</v>
+        <v>473.49</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K30" t="n">
         <v>4</v>
@@ -2497,7 +2497,7 @@
         <v>4</v>
       </c>
       <c r="M30" t="n">
-        <v>92.55</v>
+        <v>136.21</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308A730&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL208468</t>
+          <t>CHEMBL205316</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1ccncc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
+          <t>COc1ccncc1-n1ccc2cnc(Nc3cc(OC)c(OC)c(OC)c3)nc21</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,25 +2547,25 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>459.51</v>
+        <v>407.43</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
+        <v>8</v>
+      </c>
+      <c r="J31" t="n">
         <v>7</v>
       </c>
-      <c r="J31" t="n">
-        <v>8</v>
-      </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31" t="n">
         <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>99.53</v>
+        <v>92.55</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308A570&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL208384</t>
+          <t>CHEMBL208468</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN)n4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NC5CC5)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>477.53</v>
+        <v>459.51</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J32" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>138.44</v>
+        <v>99.53</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308A340&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL208368</t>
+          <t>CHEMBL208384</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccc(C)cc4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc3ccn(-c4ccc(C)cc4)c3n2)cc(OC)c1OC</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCCN)n4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,16 +2683,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>390.44</v>
+        <v>477.53</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K33" t="n">
         <v>4</v>
@@ -2701,7 +2701,7 @@
         <v>4</v>
       </c>
       <c r="M33" t="n">
-        <v>70.43000000000001</v>
+        <v>138.44</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E99A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308A110&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL207935</t>
+          <t>CHEMBL379279</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Clc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCO)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Clc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COc1cc(Nc2ncc3ccn(-c4cccc(C(=O)NCCO)c4)c3n2)cc(OC)c1OC</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,16 +2751,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>321.77</v>
+        <v>463.49</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K34" t="n">
         <v>4</v>
@@ -2769,7 +2769,7 @@
         <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>55.63</v>
+        <v>119.76</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308A0A0&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL206322</t>
+          <t>CHEMBL206927</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>COc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COC(=O)CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)n1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>COc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>COC(=O)CNC(=O)c1cccc(-n2ccc3cnc(Nc4cc(OC)c(OC)c(OC)c4)nc32)n1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,16 +2819,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>317.35</v>
+        <v>492.49</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J35" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K35" t="n">
         <v>4</v>
@@ -2837,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>64.86</v>
+        <v>138.72</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21308A030&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL382637</t>
+          <t>CHEMBL207935</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CCc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>Clc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CCc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
+          <t>Clc1ccccc1Nc1ncc2ccn(-c3ccccn3)c2n1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,7 +2887,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>315.38</v>
+        <v>321.77</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K36" t="n">
         <v>4</v>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089FC0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9310&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213089E00&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E92A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F2130895B0&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>C38925735</t>
+          <t>C13567629</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>O=C(/N=c1\[nH]c(C23CC4CC(CC(C4)C2)C3)cs1)[C@@H]1C(=O)N2CCc3cccc(c32)[C@@H]1O</t>
+          <t>C=CCN1C(=O)[C@@]2(C(C#N)=C(N)N(c3ccc(Cl)cc3)C3=C2C(=O)CCC3)c2ccccc21</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>O=C(/N=c1\[nH]c(C23CC4CC(CC(C4)C2)C3)cs1)[C@@H]1C(=O)N2CCc3cccc(c32)[C@@H]1O</t>
+          <t>C=CCN1C(=O)[C@@]2(C(C#N)=C(N)N(c3ccc(Cl)cc3)C3=C2C(=O)CCC3)c2ccccc21</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>449.58</v>
+        <v>456.93</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L39" t="n">
         <v>2</v>
       </c>
       <c r="M39" t="n">
-        <v>85.76000000000001</v>
+        <v>90.43000000000001</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC3C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019A80&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>C43219055</t>
+          <t>C38925735</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CC(C)(C)N1C(=O)[C@@H]2[C@@H](C1=O)[C@@](C(=O)[O-])(c1ccccc1)[NH2+][C@H]2c1cc2ccccc2o1</t>
+          <t>O=C(/N=c1\[nH]c(C23CC4CC(CC(C4)C2)C3)cs1)[C@@H]1C(=O)N2CCc3cccc(c32)[C@@H]1O</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CC(C)(C)N1C(=O)[C@H]2[C@H](c3cc4ccccc4o3)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
+          <t>O=C(/N=c1\[nH]c(C23CC4CC(CC(C4)C2)C3)cs1)[C@@H]1C(=O)N2CCc3cccc(c32)[C@@H]1O</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>432.48</v>
+        <v>449.58</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>107.26</v>
+        <v>85.76000000000001</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD1C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301A340&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C43528212</t>
+          <t>C43219055</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cc1nc(C2CCCC2)cc([C@H]2C[NH+]3CC[C@@H]2C[C@@H]3C[NH2+]C2CCOCC2)n1</t>
+          <t>CC(C)(C)N1C(=O)[C@@H]2[C@@H](C1=O)[C@@](C(=O)[O-])(c1ccccc1)[NH2+][C@H]2c1cc2ccccc2o1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Cc1nc(C2CCCC2)cc([C@H]2C[NH+]3CC[C@@H]2C[C@@H]3C[NH2+]C2CCOCC2)n1</t>
+          <t>CC(C)(C)N1C(=O)[C@H]2[C@H](c3cc4ccccc4o3)[NH2+][C@](C(=O)[O-])(c3ccccc3)[C@@H]2C1=O</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,25 +3227,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>386.58</v>
+        <v>432.48</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
+        <v>3</v>
+      </c>
+      <c r="K41" t="n">
         <v>5</v>
       </c>
-      <c r="K41" t="n">
-        <v>6</v>
-      </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>56.06</v>
+        <v>107.26</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC0B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018F90&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C39774295</t>
+          <t>C43528212</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>C[C@@H]1C[NH+](C)[C@H](C)C/C1=N\OCCO/N=C1\C[C@@H](C)[NH+](C)C[C@@H]1C</t>
+          <t>Cc1nc(C2CCCC2)cc([C@H]2C[NH+]3CC[C@@H]2C[C@@H]3C[NH2+]C2CCOCC2)n1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>C[C@H]1C[NH+](C)[C@H](C)C/C1=N\OCCO/N=C1\C[C@@H](C)[NH+](C)C[C@H]1C</t>
+          <t>Cc1nc(C2CCCC2)cc([C@H]2C[NH+]3CC[C@@H]2C[C@@H]3C[NH2+]C2CCOCC2)n1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>340.51</v>
+        <v>386.58</v>
       </c>
       <c r="H42" t="n">
         <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>52.06</v>
+        <v>56.06</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC4A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301A9D0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C64609883</t>
+          <t>C39774295</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>CC1=CC=CN2C1=N[C@H](C(=O)N1CCCCC1)[C@H]2CN(C)C[C@@H]1[NH+]=c2ccc(F)cc2=[NH+]1</t>
+          <t>C[C@@H]1C[NH+](C)[C@H](C)C/C1=N\OCCO/N=C1\C[C@@H](C)[NH+](C)C[C@@H]1C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CC1=CC=CN2C1=N[C@H](C(=O)N1CCCCC1)[C@H]2CN(C)C[C@@H]1[NH+]=c2ccc(F)cc2=[NH+]1</t>
+          <t>C[C@H]1C[NH+](C)[C@H](C)C/C1=N\OCCO/N=C1\C[C@@H](C)[NH+](C)C[C@H]1C</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,25 +3363,25 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>438.55</v>
+        <v>340.51</v>
       </c>
       <c r="H43" t="n">
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
         <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>67.09</v>
+        <v>52.06</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BD850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BDF0&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>C08991697</t>
+          <t>C64609883</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CC[NH+](CC)CCn1cnc2oc(-c3ccco3)c(-c3ccco3)c2c1=[NH2+]</t>
+          <t>CC1=CC=CN2C1=N[C@H](C(=O)N1CCCCC1)[C@H]2CN(C)C[C@@H]1[NH+]=c2ccc(F)cc2=[NH+]1</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CC[NH+](CC)CCn1cnc2oc(-c3ccco3)c(-c3ccco3)c2c1=[NH2+]</t>
+          <t>CC1=CC=CN2C1=N[C@H](C(=O)N1CCCCC1)[C@H]2CN(C)C[C@@H]1[NH+]=c2ccc(F)cc2=[NH+]1</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>368.44</v>
+        <v>438.55</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>87.27</v>
+        <v>67.09</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BC270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B140&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>C65374646</t>
+          <t>C08991697</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cc1cc(N2N[C@@H](C(C)C)N[C@H]2[C@@H](Cc2c[nH]c[nH+]2)n2cccc2)cc[nH+]1</t>
+          <t>CC[NH+](CC)CCn1cnc2oc(-c3ccco3)c(-c3ccco3)c2c1=[NH2+]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Cc1cc(N2N[C@@H](C(C)C)N[C@H]2[C@@H](Cc2c[nH]c[nH+]2)n2cccc2)cc[nH+]1</t>
+          <t>CC[NH+](CC)CCn1cnc2oc(-c3ccco3)c(-c3ccco3)c2c1=[NH2+]</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>367.5</v>
+        <v>368.44</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K45" t="n">
         <v>4</v>
       </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M45" t="n">
-        <v>76.3</v>
+        <v>87.27</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018A50&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>C02759724</t>
+          <t>C65374646</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>C[C@@]1(C(=O)Nc2sc3c(c2C(N)=O)CCCCC3)CC1(Br)Br</t>
+          <t>Cc1cc(N2N[C@@H](C(C)C)N[C@H]2[C@@H](Cc2c[nH]c[nH+]2)n2cccc2)cc[nH+]1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>C[C@@]1(C(=O)Nc2sc3c(c2C(N)=O)CCCCC3)CC1(Br)Br</t>
+          <t>Cc1cc(N2N[C@@H](C(C)C)N[C@H]2[C@@H](Cc2c[nH]c[nH+]2)n2cccc2)cc[nH+]1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,25 +3567,25 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>450.2</v>
+        <v>367.5</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
-        <v>72.19</v>
+        <v>76.3</v>
       </c>
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019000&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301A8F0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>C20478434</t>
+          <t>C08914499</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>O=C(CSc1n[nH]c(NN=C2CCCC2)n1)Nc1ccc(Br)cc1</t>
+          <t>COC(=O)[C@H](Cc1cnc[nH]1)NC(=O)CO/N=C1/C=C[C@]2(C)C(=C1)CC[C@@H]1[C@@H]3CC[C@@](C)(O)[C@@]3(C)CC[C@@H]12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>O=C(CSc1n[nH]c(NN=C2CCCC2)n1)Nc1ccc(Br)cc1</t>
+          <t>COC(=O)[C@H](Cc1cnc[nH]1)NC(=O)CO/N=C1/C=C[C@]2(C)C(=C1)CC[C@@H]1[C@@H]3CC[C@@](C)(O)[C@@]3(C)CC[C@@H]12</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,25 +3703,25 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>409.31</v>
+        <v>524.66</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
       </c>
       <c r="I48" t="n">
+        <v>6</v>
+      </c>
+      <c r="J48" t="n">
+        <v>7</v>
+      </c>
+      <c r="K48" t="n">
         <v>5</v>
       </c>
-      <c r="J48" t="n">
-        <v>6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3</v>
-      </c>
       <c r="L48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>95.06</v>
+        <v>125.9</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F2130190E0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B610&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>C35493901</t>
+          <t>C08739297</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>C[C@]12CC[C@H]3[C@@H](CC[C@@]4(O)C[C@H](O)CC[C@]34/C=N/Nc3ccccc3)[C@@]1(O)CC[C@@H]2C1=CC(=O)OC1</t>
+          <t>CC1(C)C[C@@]2(CCC[NH+](Cc3nc(O)c4c(n3)-c3ccccc3CC43CCCC3)C2)CCO1</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C[C@]12CC[C@H]3[C@@H](CC[C@@]4(O)C[C@H](O)CC[C@]34/C=N/Nc3ccccc3)[C@@]1(O)CC[C@@H]2C1=CC(=O)OC1</t>
+          <t>CC1(C)C[C@@]2(CCC[NH+](Cc3nc(O)c4c(n3)-c3ccccc3CC43CCCC3)C2)CCO1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3839,25 +3839,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>494.63</v>
+        <v>448.63</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I50" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
         <v>6</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>111.38</v>
+        <v>59.68</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019380&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>C39462717</t>
+          <t>C35493901</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>O=C(N[C@H](NC(=S)N[C@H]1N=CN=N1)C(Cl)(Cl)Cl)C(c1ccccc1)c1ccccc1</t>
+          <t>C[C@]12CC[C@H]3[C@@H](CC[C@@]4(O)C[C@H](O)CC[C@]34/C=N/Nc3ccccc3)[C@@]1(O)CC[C@@H]2C1=CC(=O)OC1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>O=C(N[C@H](NC(=S)N[C@H]1N=CN=N1)C(Cl)(Cl)Cl)C(c1ccccc1)c1ccccc1</t>
+          <t>C[C@]12CC[C@H]3[C@@H](CC[C@@]4(O)C[C@H](O)CC[C@]34/C=N/Nc3ccccc3)[C@@]1(O)CC[C@@H]2C1=CC(=O)OC1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3907,25 +3907,25 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>483.81</v>
+        <v>494.63</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
+        <v>4</v>
+      </c>
+      <c r="K51" t="n">
         <v>6</v>
       </c>
-      <c r="K51" t="n">
-        <v>3</v>
-      </c>
       <c r="L51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>90.23999999999999</v>
+        <v>111.38</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301AD50&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C36532568</t>
+          <t>C39462717</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>CC(C)(O)/C=C/C(=O)[C@@](C)(O)[C@@H]1[C@@H](O)C[C@]2(C)[C@@H]3CC=C4[C@@H](C=C(O)C(=O)C4(C)C)[C@@]3(C)C(=O)C[C@]12C</t>
+          <t>O=C(N[C@H](NC(=S)N[C@H]1N=CN=N1)C(Cl)(Cl)Cl)C(c1ccccc1)c1ccccc1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CC(C)(O)/C=C/C(=O)[C@@](C)(O)[C@@H]1[C@@H](O)C[C@]2(C)[C@@H]3CC=C4[C@@H](C=C(O)C(=O)C4(C)C)[C@@]3(C)C(=O)C[C@]12C</t>
+          <t>O=C(N[C@H](NC(=S)N[C@H]1N=CN=N1)C(Cl)(Cl)Cl)C(c1ccccc1)c1ccccc1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3975,25 +3975,25 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>514.66</v>
+        <v>483.81</v>
       </c>
       <c r="H52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>132.13</v>
+        <v>90.23999999999999</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BBC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B840&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C37004675</t>
+          <t>C36532568</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@H](Nc2cc(-n3cnnn3)ccc2Cl)C1</t>
+          <t>CC(C)(O)/C=C/C(=O)[C@@](C)(O)[C@@H]1[C@@H](O)C[C@]2(C)[C@@H]3CC=C4[C@@H](C=C(O)C(=O)C4(C)C)[C@@]3(C)C(=O)C[C@]12C</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>C[C@H]1CCC[C@H](Nc2cc(-n3cnnn3)ccc2Cl)C1</t>
+          <t>CC(C)(O)/C=C/C(=O)[C@@](C)(O)[C@@H]1[C@@H](O)C[C@]2(C)[C@@H]3CC=C4[C@@H](C=C(O)C(=O)C4(C)C)[C@@]3(C)C(=O)C[C@]12C</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4043,25 +4043,25 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>291.79</v>
+        <v>514.66</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>55.63</v>
+        <v>132.13</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019A10&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>C00713669</t>
+          <t>C04038456</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4092,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>O=C1c2ccccc2N[C@H](c2cccc([N+](=O)[O-])c2)N1c1ccc(Br)cc1</t>
+          <t>CCN(CC)c1ccc(-c2nn3c(-c4n[nH]c5c4CCC5)nnc3s2)cc1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>O=C1c2ccccc2N[C@H](c2cccc([N+](=O)[O-])c2)N1c1ccc(Br)cc1</t>
+          <t>CCN(CC)c1ccc(-c2nn3c(-c4n[nH]c5c4CCC5)nnc3s2)cc1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4111,25 +4111,25 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>424.25</v>
+        <v>379.49</v>
       </c>
       <c r="H54" t="n">
         <v>1</v>
       </c>
       <c r="I54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>75.48</v>
+        <v>75</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B1B0&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C28055458</t>
+          <t>C00713669</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Fc1ccc([C@@H]2C3=C(Nc4nnnn42)c2cc(Cl)ccc2O[C@@H]3c2cccs2)cc1</t>
+          <t>O=C1c2ccccc2N[C@H](c2cccc([N+](=O)[O-])c2)N1c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fc1ccc([C@@H]2C3=C(Nc4nnnn42)c2cc(Cl)ccc2O[C@@H]3c2cccs2)cc1</t>
+          <t>O=C1c2ccccc2N[C@H](c2cccc([N+](=O)[O-])c2)N1c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4179,25 +4179,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>437.89</v>
+        <v>424.25</v>
       </c>
       <c r="H55" t="n">
         <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>64.86</v>
+        <v>75.48</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5BB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018C80&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4276,7 +4276,7 @@
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301A1F0&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4344,7 +4344,7 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301AF10&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4412,7 +4412,7 @@
       <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301AFF0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4480,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F2130194D0&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4548,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301ADC0&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4616,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301AE30&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4628,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C14961716</t>
+          <t>C39597785</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4636,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>COc1ccc(F)cc1C[C@H]([NH3+])COc1cncc(-c2ccc3[nH]nc(C)c3c2)c1</t>
+          <t>CC[C@H](C(=O)N1C[C@@H](C(=O)NCCc2c[nH]c3ccccc23)C2(CC[NH2+]CC2)C1)c1ccccc1</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>COc1ccc(F)cc1C[C@H]([NH3+])COc1cncc(-c2ccc3[nH]nc(C)c3c2)c1</t>
+          <t>CC[C@H](C(=O)N1C[C@@H](C(=O)NCCc2c[nH]c3ccccc23)C2(CC[NH2+]CC2)C1)c1ccccc1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4655,25 +4655,25 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>407.47</v>
+        <v>473.64</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
         <v>7</v>
       </c>
       <c r="K62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M62" t="n">
-        <v>87.67</v>
+        <v>81.81</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4684,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BE60&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4696,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C64374288</t>
+          <t>C14961716</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4704,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Cc1cc(=O)[nH]c(-c2ccc(NC(=O)/C=C/c3c(C)nn(C)c3Cl)cc2)n1</t>
+          <t>COc1ccc(F)cc1C[C@H]([NH3+])COc1cncc(-c2ccc3[nH]nc(C)c3c2)c1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cc1cc(=O)[nH]c(-c2ccc(NC(=O)/C=C/c3c(C)nn(C)c3Cl)cc2)n1</t>
+          <t>COc1ccc(F)cc1C[C@H]([NH3+])COc1cncc(-c2ccc3[nH]nc(C)c3c2)c1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4723,7 +4723,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>383.84</v>
+        <v>407.47</v>
       </c>
       <c r="H63" t="n">
         <v>2</v>
@@ -4732,16 +4732,16 @@
         <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M63" t="n">
-        <v>92.67</v>
+        <v>87.67</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4752,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B290&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4764,7 +4764,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C15081197</t>
+          <t>C64374288</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>COC(=O)[C@@H]1[C@@H](c2ccc(OC)cc2)[C@@H](C(=O)OC)/C(=N/NS(=O)(=O)c2ccc(C)cc2)C[C@]1(C)O</t>
+          <t>Cc1cc(=O)[nH]c(-c2ccc(NC(=O)/C=C/c3c(C)nn(C)c3Cl)cc2)n1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>COC(=O)[C@H]1/C(=N/NS(=O)(=O)c2ccc(C)cc2)C[C@](C)(O)[C@H](C(=O)OC)[C@H]1c1ccc(OC)cc1</t>
+          <t>Cc1cc(=O)[nH]c(-c2ccc(NC(=O)/C=C/c3c(C)nn(C)c3Cl)cc2)n1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4791,25 +4791,25 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>518.59</v>
+        <v>383.84</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
         <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>140.59</v>
+        <v>92.67</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4820,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301AF80&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4832,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C39722437</t>
+          <t>C11511009</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4840,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>C=CCN1C(=O)C2=C(C3CC3)CSC2=N[C@@H]1SCc1nc2cc(C(=O)[O-])ccc2c(=O)[nH]1</t>
+          <t>CCOC(=O)c1sc(NC(=O)COC(=O)CNC(=O)c2ccc(C)cc2)c(C(=O)OCC)c1C</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>C=CCN1C(=O)C2=C(C3CC3)CSC2=N[C@@H]1SCc1nc2cc(C(=O)[O-])ccc2c(=O)[nH]1</t>
+          <t>CCOC(=O)c1sc(NC(=O)COC(=O)CNC(=O)c2ccc(C)cc2)c(C(=O)OCC)c1C</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>467.55</v>
+        <v>490.53</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K65" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
         <v>2</v>
       </c>
       <c r="M65" t="n">
-        <v>118.55</v>
+        <v>137.1</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4888,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B680&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4900,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C40387911</t>
+          <t>C15081197</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4908,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>CCc1nn2c(ncc3c(=O)n(CCc4c[nH+]c[nH]4)ccc32)c1-c1ccccc1</t>
+          <t>COC(=O)[C@@H]1[C@@H](c2ccc(OC)cc2)[C@@H](C(=O)OC)/C(=N/NS(=O)(=O)c2ccc(C)cc2)C[C@]1(C)O</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>CCc1nn2c(ncc3c(=O)n(CCc4c[nH+]c[nH]4)ccc32)c1-c1ccccc1</t>
+          <t>COC(=O)[C@H]1/C(=N/NS(=O)(=O)c2ccc(C)cc2)C[C@](C)(O)[C@H](C(=O)OC)[C@H]1c1ccc(OC)cc1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -4927,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>385.45</v>
+        <v>518.59</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K66" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
-        <v>82.12</v>
+        <v>140.59</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -4956,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018CF0&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -4968,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C66883357</t>
+          <t>C39722437</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -4976,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>CCN(C1CC[NH+](Cc2cc(=O)oc3c(C)c(O)ccc23)CC1)S(C)(=O)=O</t>
+          <t>C=CCN1C(=O)C2=C(C3CC3)CSC2=N[C@@H]1SCc1nc2cc(C(=O)[O-])ccc2c(=O)[nH]1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>CCN(C1CC[NH+](Cc2cc(=O)oc3c(C)c(O)ccc23)CC1)S(C)(=O)=O</t>
+          <t>C=CCN1C(=O)C2=C(C3CC3)CSC2=N[C@@H]1SCc1nc2cc(C(=O)[O-])ccc2c(=O)[nH]1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -4995,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>395.5</v>
+        <v>467.55</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>7</v>
+      </c>
+      <c r="K67" t="n">
         <v>5</v>
       </c>
-      <c r="J67" t="n">
-        <v>5</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3</v>
-      </c>
       <c r="L67" t="n">
         <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>92.26000000000001</v>
+        <v>118.55</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5024,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301A0A0&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5036,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C24843184</t>
+          <t>C20504561</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5044,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>C=CCNc1nc(C(=O)OCc2cc(O)oc3cc(=[NH+]C(C)=O)ccc2-3)cs1</t>
+          <t>C[C@H](C(=O)NCCN1CCOCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>C=CCNc1nc(C(=O)OCc2cc(O)oc3cc(=[NH+]C(C)=O)ccc2-3)cs1</t>
+          <t>C[C@H](C(=O)NCCN1CCOCC1)[C@@H]1CC[C@@]2(C)Cc3s/c(=N\C(=O)C[NH+](C)C)[nH]c3[C@@H](C)[C@@H]2[C@H]1O</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5063,25 +5063,25 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>400.44</v>
+        <v>522.74</v>
       </c>
       <c r="H68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I68" t="n">
+        <v>5</v>
+      </c>
+      <c r="J68" t="n">
         <v>7</v>
       </c>
-      <c r="J68" t="n">
-        <v>6</v>
-      </c>
       <c r="K68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L68" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>115.63</v>
+        <v>111.46</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5092,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BC30&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5104,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C38814897</t>
+          <t>C09423983</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5112,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CC1=C(C2=NN=C(C(=O)N/N=C/C3=c4ccccc4=[NH+]C3)C2)[C@@H](C)N(c2ccccc2)N1</t>
+          <t>Cn1c(N/N=C/c2cccs2)nc2c1c(=O)n(Cc1ccccc1Cl)c(=O)n2C</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CC1=C(C2=NN=C(C(=O)N/N=C/C3=c4ccccc4=[NH+]C3)C2)[C@@H](C)N(c2ccccc2)N1</t>
+          <t>Cn1c(N/N=C/c2cccs2)nc2c1c(=O)n(Cc1ccccc1Cl)c(=O)n2C</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5131,25 +5131,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>426.5</v>
+        <v>428.91</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J69" t="n">
         <v>5</v>
       </c>
       <c r="K69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>95.42</v>
+        <v>86.20999999999999</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5160,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301AC70&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5172,7 +5172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C63517445</t>
+          <t>C14380407</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5180,12 +5180,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Nc1ncnc2c1ncn2CCC[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCO2</t>
+          <t>CC(C)Cc1nnc(NC(=O)C2CCN(c3ccccc3[N+](=O)[O-])CC2)s1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nc1ncnc2c1ncn2CCC[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCO2</t>
+          <t>CC(C)Cc1nnc(NC(=O)C2CCN(c3ccccc3[N+](=O)[O-])CC2)s1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5199,25 +5199,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>381.46</v>
+        <v>389.48</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>6</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>92.52</v>
+        <v>101.26</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5228,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301ACE0&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5240,7 +5240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C38743573</t>
+          <t>C00782383</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5248,12 +5248,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>COc1ccc(/C=C/C2=NN3[C@H](NN[C@H]3[C@@H]3C=C(c4ccc(OC)cc4)N=N3)S2)cc1</t>
+          <t>Cc1cc(C)c2[nH]c(=O)c([C@H](c3nnnn3C(C)(C)C)[NH+]3CCCCC3)cc2c1</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>COc1ccc(/C=C/C2=NN3[C@H](NN[C@H]3[C@@H]3C=C(c4ccc(OC)cc4)N=N3)S2)cc1</t>
+          <t>Cc1cc(C)c2[nH]c(=O)c([C@H](c3nnnn3C(C)(C)C)[NH+]3CCCCC3)cc2c1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5267,25 +5267,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>434.53</v>
+        <v>395.53</v>
       </c>
       <c r="H71" t="n">
         <v>2</v>
       </c>
       <c r="I71" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J71" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>82.84</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5296,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B3E0&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5308,7 +5308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C08042713</t>
+          <t>C40387911</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5316,12 +5316,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>CN(CC(=O)N/N=C/c1ccc([N+](=O)[O-])cc1)S(=O)(=O)c1ccc(Cl)cc1</t>
+          <t>CCc1nn2c(ncc3c(=O)n(CCc4c[nH+]c[nH]4)ccc32)c1-c1ccccc1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>CN(CC(=O)N/N=C/c1ccc([N+](=O)[O-])cc1)S(=O)(=O)c1ccc(Cl)cc1</t>
+          <t>CCc1nn2c(ncc3c(=O)n(CCc4c[nH+]c[nH]4)ccc32)c1-c1ccccc1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5335,25 +5335,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>410.84</v>
+        <v>385.45</v>
       </c>
       <c r="H72" t="n">
         <v>1</v>
       </c>
       <c r="I72" t="n">
+        <v>3</v>
+      </c>
+      <c r="J72" t="n">
         <v>5</v>
       </c>
-      <c r="J72" t="n">
-        <v>7</v>
-      </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M72" t="n">
-        <v>121.98</v>
+        <v>82.12</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5364,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BD80&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5376,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C13450627</t>
+          <t>C66883357</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5384,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>CC1([C@H]2CC[C@@H]3[C@@H]4CC[C@@H]5CC6(C/C(=N/O)[C@@]5(C)[C@@H]4[C@@H](O)C[C@@]32C)OCCO6)OCCO1</t>
+          <t>CCN(C1CC[NH+](Cc2cc(=O)oc3c(C)c(O)ccc23)CC1)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>CC1([C@H]2CC[C@@H]3[C@@H]4CC[C@@H]5CC6(C/C(=N/O)[C@@]5(C)[C@@H]4[C@@H](O)C[C@]23C)OCCO6)OCCO1</t>
+          <t>CCN(C1CC[NH+](Cc2cc(=O)oc3c(C)c(O)ccc23)CC1)S(C)(=O)=O</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5399,29 +5399,29 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>449.59</v>
+        <v>395.5</v>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K73" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M73" t="n">
-        <v>89.73999999999999</v>
+        <v>92.26000000000001</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5432,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BED0&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5444,7 +5444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C17707166</t>
+          <t>C66190264</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5452,12 +5452,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CC(C)CCn1c(SCc2nc(N)nc(N)n2)nc2sc3c(c2c1=O)CC[C@@H](C)C3</t>
+          <t>CC(C)(C)OC(=O)N1CCCC[C@@H]1CNC(=O)N1CC[C@@H]([NH+]2CCCC2)C1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CC(C)CCn1c(SCc2nc(N)nc(N)n2)nc2sc3c(c2c1=O)CC[C@@H](C)C3</t>
+          <t>CC(C)(C)OC(=O)N1CCCC[C@@H]1CNC(=O)N1CC[C@@H]([NH+]2CCCC2)C1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5467,29 +5467,29 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>445.62</v>
+        <v>381.54</v>
       </c>
       <c r="H74" t="n">
         <v>2</v>
       </c>
       <c r="I74" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M74" t="n">
-        <v>125.6</v>
+        <v>66.31999999999999</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018BA0&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5512,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C11052640</t>
+          <t>C24843184</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5520,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@@H](C)OC(=O)CCNS(=O)(=O)c3ccc4ccccc4c3)[nH]c(=O)c2c1C</t>
+          <t>C=CCNc1nc(C(=O)OCc2cc(O)oc3cc(=[NH+]C(C)=O)ccc2-3)cs1</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Cc1sc2nc([C@@H](C)OC(=O)CCNS(=O)(=O)c3ccc4ccccc4c3)[nH]c(=O)c2c1C</t>
+          <t>C=CCNc1nc(C(=O)OCc2cc(O)oc3cc(=[NH+]C(C)=O)ccc2-3)cs1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5535,29 +5535,29 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>485.59</v>
+        <v>400.44</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
+        <v>7</v>
+      </c>
+      <c r="J75" t="n">
         <v>6</v>
       </c>
-      <c r="J75" t="n">
-        <v>7</v>
-      </c>
       <c r="K75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
-        <v>118.22</v>
+        <v>115.63</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5568,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E98C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018900&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5580,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C38760040</t>
+          <t>C38814897</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5588,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Cc1ccc(N(C)C)c([C@H](c2c([O-])[nH]c(=S)n(C(C)C)c2=O)[C@@H]2C(=O)NC(=S)N(C(C)C)[C@H]2O)c1</t>
+          <t>CC1=C(C2=NN=C(C(=O)N/N=C/C3=c4ccccc4=[NH+]C3)C2)[C@@H](C)N(c2ccccc2)N1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Cc1ccc(N(C)C)c([C@H](c2c([O-])[nH]c(=S)n(C(C)C)c2=O)[C@@H]2C(=O)NC(=S)N(C(C)C)[C@H]2O)c1</t>
+          <t>CC1=C(C2=NN=C(C(=O)N/N=C/C3=c4ccccc4=[NH+]C3)C2)[C@@H](C)N(c2ccccc2)N1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5603,29 +5603,29 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>518.6900000000001</v>
+        <v>426.5</v>
       </c>
       <c r="H76" t="n">
         <v>3</v>
       </c>
       <c r="I76" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L76" t="n">
         <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>116.66</v>
+        <v>95.42</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5636,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B300&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5648,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C35757799</t>
+          <t>C63517445</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5656,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccc([C@H]2OC(=O)N(Cc3ccccc3)[C@H]2C(=O)NC[C@@H]2CCCO2)c1)c1ccccc1F</t>
+          <t>Nc1ncnc2c1ncn2CCC[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>O=C(Nc1cccc([C@H]2OC(=O)N(Cc3ccccc3)[C@H]2C(=O)NC[C@@H]2CCCO2)c1)c1ccccc1F</t>
+          <t>Nc1ncnc2c1ncn2CCC[NH+]1CCC[C@@H]1c1ccc2c(c1)OCCO2</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5671,20 +5671,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>517.5599999999999</v>
+        <v>381.46</v>
       </c>
       <c r="H77" t="n">
         <v>2</v>
       </c>
       <c r="I77" t="n">
+        <v>6</v>
+      </c>
+      <c r="J77" t="n">
         <v>5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>8</v>
       </c>
       <c r="K77" t="n">
         <v>5</v>
@@ -5693,7 +5693,7 @@
         <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>96.97</v>
+        <v>92.52</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5704,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E95B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B760&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5716,7 +5716,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C36188703</t>
+          <t>C38743573</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5724,12 +5724,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CCCCN1C(=O)c2ccc(C(=O)O[C@@H](C)C(=O)NC(=O)NC3CCCCC3)cc2C1=O</t>
+          <t>COc1ccc(/C=C/C2=NN3[C@H](NN[C@H]3[C@@H]3C=C(c4ccc(OC)cc4)N=N3)S2)cc1</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CCCCN1C(=O)c2ccc(C(=O)O[C@@H](C)C(=O)NC(=O)NC3CCCCC3)cc2C1=O</t>
+          <t>COc1ccc(/C=C/C2=NN3[C@H](NN[C@H]3[C@@H]3C=C(c4ccc(OC)cc4)N=N3)S2)cc1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5739,11 +5739,11 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>443.5</v>
+        <v>434.53</v>
       </c>
       <c r="H78" t="n">
         <v>2</v>
@@ -5752,16 +5752,16 @@
         <v>6</v>
       </c>
       <c r="J78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M78" t="n">
-        <v>121.88</v>
+        <v>82.84</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5772,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019AF0&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5784,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C27832163</t>
+          <t>C04161142</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5792,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>CC(C)/[NH+]=C/c1c([O-])c([N+](=O)[O-])cc2oc3c(c12)CCCC3</t>
+          <t>Cc1ccc(-c2nnn(CC(=O)N(CC(=O)NC(C)(C)C)c3cccc(C)c3C)n2)o1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>CC(C)/[NH+]=C/c1c([O-])c([N+](=O)[O-])cc2oc3c(c12)CCCC3</t>
+          <t>Cc1ccc(-c2nnn(CC(=O)N(CC(=O)NC(C)(C)C)c3cccc(C)c3C)n2)o1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5807,29 +5807,29 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>302.33</v>
+        <v>424.51</v>
       </c>
       <c r="H79" t="n">
         <v>1</v>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K79" t="n">
         <v>3</v>
       </c>
       <c r="L79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>93.31</v>
+        <v>106.15</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5840,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018EB0&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5852,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C12783993</t>
+          <t>C08042713</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5860,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>COC(=O)c1sc(N)c(C(=O)OC)c1CSc1nnc(-c2ccccc2)n1Cc1ccco1</t>
+          <t>CN(CC(=O)N/N=C/c1ccc([N+](=O)[O-])cc1)S(=O)(=O)c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>COC(=O)c1sc(N)c(C(=O)OC)c1CSc1nnc(-c2ccccc2)n1Cc1ccco1</t>
+          <t>CN(CC(=O)N/N=C/c1ccc([N+](=O)[O-])cc1)S(=O)(=O)c1ccc(Cl)cc1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5875,29 +5875,29 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>484.56</v>
+        <v>410.84</v>
       </c>
       <c r="H80" t="n">
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J80" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
-        <v>122.47</v>
+        <v>121.98</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5908,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019C40&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5920,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C26575932</t>
+          <t>C13450627</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -5928,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CCC[C@H]1CC[C@H](c2ccc(-c3ccccc3-c3nnn[n-]3)cc2)n2c1n[nH]c2=O</t>
+          <t>CC1([C@H]2CC[C@@H]3[C@@H]4CC[C@@H]5CC6(C/C(=N/O)[C@@]5(C)[C@@H]4[C@@H](O)C[C@@]32C)OCCO6)OCCO1</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CCC[C@H]1CC[C@H](c2ccc(-c3ccccc3-c3nnn[n-]3)cc2)n2c1n[nH]c2=O</t>
+          <t>CC1([C@H]2CC[C@@H]3[C@@H]4CC[C@@H]5CC6(C/C(=N/O)[C@@]5(C)[C@@H]4[C@@H](O)C[C@]23C)OCCO6)OCCO1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -5947,25 +5947,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>400.47</v>
+        <v>449.59</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="n">
         <v>6</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L81" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
-        <v>103.45</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -5976,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F2130193F0&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -5988,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C27559058</t>
+          <t>C39921159</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -5996,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>C=CCNC(=O)C[NH+]1CCN(CC(=O)NCCc2ccc(S(N)(=O)=O)cc2)CC1</t>
+          <t>Cc1ccc(Nc2oc3cc(C)oc(=O)c3c2-c2ccncc2)c(C)c1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>C=CCNC(=O)C[NH+]1CCN(CC(=O)NCCc2ccc(S(N)(=O)=O)cc2)CC1</t>
+          <t>Cc1ccc(Nc2oc3cc(C)oc(=O)c3c2-c2ccncc2)c(C)c1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6015,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>424.55</v>
+        <v>346.39</v>
       </c>
       <c r="H82" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>5</v>
       </c>
       <c r="J82" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>126.04</v>
+        <v>68.27</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6044,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019310&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6056,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C05100508</t>
+          <t>C17707166</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6064,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(NC(=O)[C@@H]2O[C@H]3OC(C)(C)O[C@@H]3[C@H]3OC(C)(C)O[C@H]32)cc1</t>
+          <t>CC(C)CCn1c(SCc2nc(N)nc(N)n2)nc2sc3c(c2c1=O)CC[C@@H](C)C3</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(NC(=O)[C@@H]2O[C@H]3OC(C)(C)O[C@@H]3[C@H]3OC(C)(C)O[C@H]32)cc1</t>
+          <t>CC(C)CCn1c(SCc2nc(N)nc(N)n2)nc2sc3c(c2c1=O)CC[C@@H](C)C3</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6083,25 +6083,25 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>407.46</v>
+        <v>445.62</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J83" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K83" t="n">
         <v>4</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>84.48</v>
+        <v>125.6</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6112,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301AB90&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6124,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C40916915</t>
+          <t>C00115326</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6132,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>CC1=C(C(N)=O)[C@H](c2cc(Br)ccc2OCc2ccc(Cl)cc2)n2ncnc2N1</t>
+          <t>CC(C)(C)/C=N/NC(=O)c1nc(-c2ccc(C(C)(C)C)cc2)no1</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>CC1=C(C(N)=O)[C@H](c2cc(Br)ccc2OCc2ccc(Cl)cc2)n2ncnc2N1</t>
+          <t>CC(C)(C)/C=N/NC(=O)c1nc(-c2ccc(C(C)(C)C)cc2)no1</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6151,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>474.75</v>
+        <v>328.42</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M84" t="n">
-        <v>95.06</v>
+        <v>80.38</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6180,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301B7D0&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6192,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CHEMBL2036871</t>
+          <t>C38657178</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6200,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
+          <t>CCc1ccc(O[C@H](C)C(=O)Oc2ccc3c(c2)OC(N)=C(C#N)[C@H]3c2ccc(OC)cc2OC)cc1</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cn1c(=O)c2ccc(-c3nc4ccccc4n3C)nc2n(C)c1=O</t>
+          <t>CCc1ccc(O[C@H](C)C(=O)Oc2ccc3c(c2)OC(N)=C(C#N)[C@H]3c2ccc(OC)cc2OC)cc1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6215,66 +6215,40 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>321.34</v>
+        <v>500.55</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K85" t="n">
         <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>74.70999999999999</v>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P85" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q85" t="n">
-        <v>92000</v>
-      </c>
-      <c r="R85" t="inlineStr">
-        <is>
-          <t>CHEMBL2038024</t>
-        </is>
-      </c>
-      <c r="S85" t="inlineStr">
-        <is>
-          <t>Inhibition of recombinant FAK using poly(Glu,Tyr)4 as substrate assessed as inhibition of [33P]Phosphate incorporation into substrate after 80 mins by scintillation counting</t>
-        </is>
-      </c>
-      <c r="T85" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>113.03</v>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BA00&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6286,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CHEMBL3261189</t>
+          <t>C38760040</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6294,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
+          <t>Cc1ccc(N(C)C)c([C@H](c2c([O-])[nH]c(=S)n(C(C)C)c2=O)[C@@H]2C(=O)NC(=S)N(C(C)C)[C@H]2O)c1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>COc1ccccc1/C=C\c1ncc([N+](=O)[O-])n1CCOC(=O)c1cccc2c1OCCO2</t>
+          <t>Cc1ccc(N(C)C)c([C@H](c2c([O-])[nH]c(=S)n(C(C)C)c2=O)[C@@H]2C(=O)NC(=S)N(C(C)C)[C@H]2O)c1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6309,66 +6283,40 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>451.44</v>
+        <v>518.6900000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86" t="n">
         <v>8</v>
       </c>
       <c r="J86" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K86" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>114.95</v>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P86" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q86" t="n">
-        <v>30070</v>
-      </c>
-      <c r="R86" t="inlineStr">
-        <is>
-          <t>CHEMBL3268423</t>
-        </is>
-      </c>
-      <c r="S86" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) assembly after 20 mins by turbidimetric method</t>
-        </is>
-      </c>
-      <c r="T86" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>116.66</v>
+      </c>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E85F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BBC0&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6380,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CHEMBL2425111</t>
+          <t>C35757799</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6388,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
+          <t>O=C(Nc1cccc([C@H]2OC(=O)N(Cc3ccccc3)[C@H]2C(=O)NC[C@@H]2CCCO2)c1)c1ccccc1F</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Brc1cncc(-c2nnn[nH]2)c1</t>
+          <t>O=C(Nc1cccc([C@H]2OC(=O)N(Cc3ccccc3)[C@H]2C(=O)NC[C@@H]2CCCO2)c1)c1ccccc1F</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6403,66 +6351,40 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>226.04</v>
+        <v>517.5599999999999</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M87" t="n">
-        <v>67.34999999999999</v>
-      </c>
-      <c r="N87" t="inlineStr">
-        <is>
-          <t>Kd</t>
-        </is>
-      </c>
-      <c r="O87" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P87" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q87" t="n">
-        <v>95000</v>
-      </c>
-      <c r="R87" t="inlineStr">
-        <is>
-          <t>CHEMBL2427451</t>
-        </is>
-      </c>
-      <c r="S87" t="inlineStr">
-        <is>
-          <t>Binding affinity to FAK kinase (unknown origin) by surface plasmon resonance assay</t>
-        </is>
-      </c>
-      <c r="T87" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>96.97</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EAFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F2130198C0&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6474,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CHEMBL941</t>
+          <t>C36188703</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6482,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
+          <t>CCCCN1C(=O)c2ccc(C(=O)O[C@@H](C)C(=O)NC(=O)NC3CCCCC3)cc2C1=O</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccc(CN3CCN(C)CC3)cc2)cc1Nc1nccc(-c2cccnc2)n1</t>
+          <t>CCCCN1C(=O)c2ccc(C(=O)O[C@@H](C)C(=O)NC(=O)NC3CCCCC3)cc2C1=O</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6497,66 +6419,40 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>493.62</v>
+        <v>443.5</v>
       </c>
       <c r="H88" t="n">
         <v>2</v>
       </c>
       <c r="I88" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J88" t="n">
         <v>7</v>
       </c>
       <c r="K88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
-        <v>86.28</v>
-      </c>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P88" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q88" t="n">
-        <v>-62</v>
-      </c>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>CHEMBL4153877</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) at 10 uM by [33P]-ATP radiometric assay</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>121.88</v>
+      </c>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019D20&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6568,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHEMBL166031</t>
+          <t>C27832163</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6576,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
+          <t>CC(C)/[NH+]=C/c1c([O-])c([N+](=O)[O-])cc2oc3c(c12)CCCC3</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>CC(C)(C)c1cc(NC(=O)Nc2ccc(Oc3ccncc3)cc2)no1</t>
+          <t>CC(C)/[NH+]=C/c1c([O-])c([N+](=O)[O-])cc2oc3c(c12)CCCC3</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6591,66 +6487,40 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>352.39</v>
+        <v>302.33</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K89" t="n">
         <v>3</v>
       </c>
       <c r="L89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>89.28</v>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O89" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P89" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q89" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="R89" t="inlineStr">
-        <is>
-          <t>CHEMBL3630493</t>
-        </is>
-      </c>
-      <c r="S89" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK (unknown origin) at 10 uM after 120 mins P33 radiolabeled kinase activity assay</t>
-        </is>
-      </c>
-      <c r="T89" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>93.31</v>
+      </c>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E9AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213019230&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6662,7 +6532,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CHEMBL2216825</t>
+          <t>C27559058</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -6670,12 +6540,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>C=CCNC(=O)C[NH+]1CCN(CC(=O)NCCc2ccc(S(N)(=O)=O)cc2)CC1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>C[C@H]1O[C@@H]2CC(=O)O[C@@H]2C2=C1C(=O)c1c(ccc([C@H]3C[C@@H](N(C)C)[C@H](O)[C@@H](C)O3)c1O)C2=O</t>
+          <t>C=CCNC(=O)C[NH+]1CCN(CC(=O)NCCc2ccc(S(N)(=O)=O)cc2)CC1</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -6685,66 +6555,40 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>457.48</v>
+        <v>424.55</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I90" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
       <c r="M90" t="n">
-        <v>122.6</v>
-      </c>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P90" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q90" t="n">
-        <v>12</v>
-      </c>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>CHEMBL1019637</t>
-        </is>
-      </c>
-      <c r="S90" t="inlineStr">
-        <is>
-          <t>Inhibition of PTK2 at 1 uM</t>
-        </is>
-      </c>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>126.04</v>
+      </c>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018B30&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6756,7 +6600,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CHEMBL3758768</t>
+          <t>C05100508</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -6764,12 +6608,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
+          <t>CCCOc1ccc(NC(=O)[C@@H]2O[C@H]3OC(C)(C)O[C@@H]3[C@H]3OC(C)(C)O[C@H]32)cc1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>COc1cc(CO)ccc1-c1cc2c(Nc3ccccc3)ncnc2s1</t>
+          <t>CCCOc1ccc(NC(=O)[C@@H]2O[C@H]3OC(C)(C)O[C@@H]3[C@H]3OC(C)(C)O[C@H]32)cc1</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -6779,17 +6623,17 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>363.44</v>
+        <v>407.46</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J91" t="n">
         <v>5</v>
@@ -6798,47 +6642,21 @@
         <v>4</v>
       </c>
       <c r="L91" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M91" t="n">
-        <v>67.27</v>
-      </c>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P91" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q91" t="n">
-        <v>15</v>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>CHEMBL3761601</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>Inhibition of PTK2 (unknown origin) at 500 nM</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>84.48</v>
+      </c>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BD10&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6850,7 +6668,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CHEMBL607196</t>
+          <t>C40916915</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -6858,12 +6676,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
+          <t>CC1=C(C(N)=O)[C@H](c2cc(Br)ccc2OCc2ccc(Cl)cc2)n2ncnc2N1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>O=C1Nc2ccccc2/C1=C1\C(=O)N(CCCc2ccccc2)c2ccccc21</t>
+          <t>CC1=C(C(N)=O)[C@H](c2cc(Br)ccc2OCc2ccc(Cl)cc2)n2ncnc2N1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -6873,66 +6691,40 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>380.45</v>
+        <v>474.75</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L92" t="n">
         <v>3</v>
       </c>
       <c r="M92" t="n">
-        <v>49.41</v>
-      </c>
-      <c r="N92" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O92" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q92" t="n">
-        <v>0</v>
-      </c>
-      <c r="R92" t="inlineStr">
-        <is>
-          <t>CHEMBL1069301</t>
-        </is>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM</t>
-        </is>
-      </c>
-      <c r="T92" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>95.06</v>
+      </c>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F21301BAE0&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6944,7 +6736,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CHEMBL1241462</t>
+          <t>C12445096</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -6952,12 +6744,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
+          <t>c1ccc2c(c1)CC([NH+]1CCC(C[NH+](Cc3c[nH]cn3)C[C@H]3CCCO3)CC1)C2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>c1cc(-c2cc(C3CCNCC3)n[nH]2)ccn1</t>
+          <t>c1ccc2c(c1)CC([NH+]1CCC(C[NH+](Cc3c[nH]cn3)C[C@H]3CCCO3)CC1)C2</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -6967,66 +6759,40 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G93" t="n">
-        <v>228.3</v>
+        <v>396.58</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L93" t="n">
         <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P93" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q93" t="n">
-        <v>15</v>
-      </c>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>CHEMBL1246553</t>
-        </is>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 5 uM</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>46.79</v>
+      </c>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F2130187B0&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -7038,7 +6804,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHEMBL519311</t>
+          <t>C02759724</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -7046,12 +6812,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
+          <t>C[C@@]1(C(=O)Nc2sc3c(c2C(N)=O)CCCCC3)CC1(Br)Br</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>CN(C)CC(C)(C)CNC(=O)C1CCN(c2cc(N3CCOCC3)nc(N)n2)CC1</t>
+          <t>C[C@@]1(C(=O)Nc2sc3c(c2C(N)=O)CCCCC3)CC1(Br)Br</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -7061,20 +6827,20 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>419.57</v>
+        <v>450.2</v>
       </c>
       <c r="H94" t="n">
         <v>2</v>
       </c>
       <c r="I94" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J94" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K94" t="n">
         <v>3</v>
@@ -7083,141 +6849,21 @@
         <v>1</v>
       </c>
       <c r="M94" t="n">
-        <v>99.84999999999999</v>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q94" t="n">
-        <v>3</v>
-      </c>
-      <c r="R94" t="inlineStr">
-        <is>
-          <t>CHEMBL953401</t>
-        </is>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM by HTRF assay relative to control</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>72.19</v>
+      </c>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5EA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F213018AC0&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
-        <is>
-          <t>G2</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>CHEMBL2012574</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>COc1ccc2c3ccnc(C(F)(F)F)c3n(CCCCN)c2c1</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>G2 inactive</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="G95" t="n">
-        <v>337.35</v>
-      </c>
-      <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3</v>
-      </c>
-      <c r="J95" t="n">
-        <v>5</v>
-      </c>
-      <c r="K95" t="n">
-        <v>3</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3</v>
-      </c>
-      <c r="M95" t="n">
-        <v>53.07</v>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P95" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q95" t="n">
-        <v>0</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>CHEMBL2014152</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Inhibition of FAK at 10 uM</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002084E5E8660&gt;</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
         <is>
           <t>G2</t>
         </is>
